--- a/document/DD_NewCourse.xlsx
+++ b/document/DD_NewCourse.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="9900" windowWidth="9210" windowHeight="6465" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19110" windowHeight="7845" tabRatio="607" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
-    <sheet name="Flow" sheetId="2" r:id="rId2"/>
-    <sheet name="SQL_DB_01" sheetId="3" r:id="rId3"/>
-    <sheet name="summary_data_period" sheetId="4" r:id="rId4"/>
+    <sheet name="GUI" sheetId="6" r:id="rId2"/>
+    <sheet name="validate" sheetId="5" r:id="rId3"/>
+    <sheet name="Flow" sheetId="2" r:id="rId4"/>
+    <sheet name="SQL_DB_01" sheetId="3" r:id="rId5"/>
+    <sheet name="summary_data_period" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Flow!$A$1:$BK$67</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Flow!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">SQL_DB_01!$A$1:$BY$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">SQL_DB_01!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">summary_data_period!$A$1:$BI$65</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">summary_data_period!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Flow!$A$1:$BK$76</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Flow!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">SQL_DB_01!$A$1:$BY$64</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">SQL_DB_01!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">summary_data_period!$A$1:$BI$65</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">summary_data_period!$1:$4</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aaaa">{"'Sheet2 (2)'!$AF$67","'Sheet2 (2)'!$A$1:$Z$82"}</definedName>
     <definedName name="aaaaaaa">{"'Sheet2 (2)'!$AF$67","'Sheet2 (2)'!$A$1:$Z$82"}</definedName>
@@ -153,33 +155,6 @@
     <definedName name="さ" localSheetId="0">#REF!</definedName>
     <definedName name="関連表" localSheetId="0">#REF!</definedName>
     <definedName name="ｋ" localSheetId="0">#REF!</definedName>
-    <definedName name="a" localSheetId="1">#REF!</definedName>
-    <definedName name="bb" localSheetId="1">{"月例報告",#N/A,FALSE,"STB"}</definedName>
-    <definedName name="wrn.月例報告." localSheetId="1">{"月例報告",#N/A,FALSE,"STB"}</definedName>
-    <definedName name="wrn.月例報告x." localSheetId="1">{"月例報告",#N/A,FALSE,"STB"}</definedName>
-    <definedName name="_Key1" localSheetId="1">#REF!</definedName>
-    <definedName name="_Key2" localSheetId="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="1">#REF!</definedName>
-    <definedName name="_Sort" localSheetId="1">#REF!</definedName>
-    <definedName name="_SortBtmBanner" localSheetId="1">#REF!</definedName>
-    <definedName name="あ" localSheetId="1">#REF!</definedName>
-    <definedName name="ああ" localSheetId="1">#REF!</definedName>
-    <definedName name="い" localSheetId="1">#REF!</definedName>
-    <definedName name="う" localSheetId="1">#REF!</definedName>
-    <definedName name="さ" localSheetId="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="1">#REF!</definedName>
-    <definedName name="ｋ" localSheetId="1">#REF!</definedName>
-    <definedName name="a" localSheetId="2">#REF!</definedName>
-    <definedName name="bb" localSheetId="2">{"月例報告",#N/A,FALSE,"STB"}</definedName>
-    <definedName name="wrn.月例報告." localSheetId="2">{"月例報告",#N/A,FALSE,"STB"}</definedName>
-    <definedName name="wrn.月例報告x." localSheetId="2">{"月例報告",#N/A,FALSE,"STB"}</definedName>
-    <definedName name="_Regression_X" localSheetId="2">#REF!</definedName>
-    <definedName name="あ" localSheetId="2">#REF!</definedName>
-    <definedName name="い" localSheetId="2">#REF!</definedName>
-    <definedName name="う" localSheetId="2">#REF!</definedName>
-    <definedName name="さ" localSheetId="2">#REF!</definedName>
-    <definedName name="関連表" localSheetId="2">#REF!</definedName>
-    <definedName name="ｋ" localSheetId="2">#REF!</definedName>
     <definedName name="a" localSheetId="3">#REF!</definedName>
     <definedName name="bb" localSheetId="3">{"月例報告",#N/A,FALSE,"STB"}</definedName>
     <definedName name="wrn.月例報告." localSheetId="3">{"月例報告",#N/A,FALSE,"STB"}</definedName>
@@ -196,13 +171,40 @@
     <definedName name="さ" localSheetId="3">#REF!</definedName>
     <definedName name="関連表" localSheetId="3">#REF!</definedName>
     <definedName name="ｋ" localSheetId="3">#REF!</definedName>
+    <definedName name="a" localSheetId="4">#REF!</definedName>
+    <definedName name="bb" localSheetId="4">{"月例報告",#N/A,FALSE,"STB"}</definedName>
+    <definedName name="wrn.月例報告." localSheetId="4">{"月例報告",#N/A,FALSE,"STB"}</definedName>
+    <definedName name="wrn.月例報告x." localSheetId="4">{"月例報告",#N/A,FALSE,"STB"}</definedName>
+    <definedName name="_Regression_X" localSheetId="4">#REF!</definedName>
+    <definedName name="あ" localSheetId="4">#REF!</definedName>
+    <definedName name="い" localSheetId="4">#REF!</definedName>
+    <definedName name="う" localSheetId="4">#REF!</definedName>
+    <definedName name="さ" localSheetId="4">#REF!</definedName>
+    <definedName name="関連表" localSheetId="4">#REF!</definedName>
+    <definedName name="ｋ" localSheetId="4">#REF!</definedName>
+    <definedName name="a" localSheetId="5">#REF!</definedName>
+    <definedName name="bb" localSheetId="5">{"月例報告",#N/A,FALSE,"STB"}</definedName>
+    <definedName name="wrn.月例報告." localSheetId="5">{"月例報告",#N/A,FALSE,"STB"}</definedName>
+    <definedName name="wrn.月例報告x." localSheetId="5">{"月例報告",#N/A,FALSE,"STB"}</definedName>
+    <definedName name="_Key1" localSheetId="5">#REF!</definedName>
+    <definedName name="_Key2" localSheetId="5">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="5">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="5">#REF!</definedName>
+    <definedName name="_SortBtmBanner" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="ああ" localSheetId="5">#REF!</definedName>
+    <definedName name="い" localSheetId="5">#REF!</definedName>
+    <definedName name="う" localSheetId="5">#REF!</definedName>
+    <definedName name="さ" localSheetId="5">#REF!</definedName>
+    <definedName name="関連表" localSheetId="5">#REF!</definedName>
+    <definedName name="ｋ" localSheetId="5">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>更新履歴</t>
   </si>
@@ -231,6 +233,610 @@
     <t>NguyenNT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>o m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Tên khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>đầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t thúc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> bài h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c phí</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Khuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Lo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Serminar</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Validate data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Tên khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>đầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">t thúc </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sau th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i gian b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>đầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>không âm, là s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> nguyên</t>
+    </r>
+  </si>
+  <si>
+    <t>không âm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 0%-&gt;100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Lo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">not null </t>
+  </si>
+  <si>
     <t>システム名</t>
   </si>
   <si>
@@ -243,7 +849,7 @@
     <t>更新</t>
   </si>
   <si>
-    <t>入力</t>
+    <t xml:space="preserve">input </t>
   </si>
   <si>
     <t>詳細</t>
@@ -252,7 +858,7 @@
     <t>メッセージID</t>
   </si>
   <si>
-    <t>出力</t>
+    <t>output</t>
   </si>
   <si>
     <t>バッチ本体処理</t>
@@ -264,37 +870,834 @@
     <t>　</t>
   </si>
   <si>
+    <t>入力</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
     <t>Chi tiết xử lý</t>
   </si>
   <si>
-    <t>Thực thi câu lệnh SQL được mô tả ở sheet SQL_DB_01</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>n d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>đố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợng khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>c t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> view</t>
+    </r>
   </si>
   <si>
-    <t>1. Trường hợp xảy ra lỗi khi execute câu lệnh</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>m tra session là admin hoặc teacher</t>
+    </r>
   </si>
   <si>
-    <t>Output log thông tin lỗi</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>1.Không ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
   </si>
   <si>
-    <t>Kết thúc xử lý của Batch</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> trang login</t>
+    </r>
   </si>
   <si>
-    <t>2. Trường hợp không xảy ra lỗi</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>2. Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
   </si>
   <si>
-    <t>Đăng ký data vào BQ</t>
+    <t>Validate data như sheet validate</t>
   </si>
   <si>
-    <t>2.1. trường hợp đăng ký xảy ra lỗi khi execute câu lệnh</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>1. D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>u không h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>p l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
   </si>
   <si>
-    <t>Revert data đã đăng ký</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Set thông tin l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>i tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> trang t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>o khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>c</t>
+    </r>
   </si>
   <si>
-    <t>2.2. Trường hợp không xảy ra lỗi</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>2. D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>u h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>p l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
   </si>
   <si>
-    <t>Output log xử lý thành công</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>n truy v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">n ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>đố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợng vào database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>1. Ghi d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>u thành công</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Thông báo thêm thành công tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> trang t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>o m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>2. Ghi d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>u th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>t b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Log thông tin l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>i tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> trang t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t>o m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
   </si>
   <si>
     <t>処理区分</t>
@@ -384,7 +1787,59 @@
     <t>course_id</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>id khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+  </si>
+  <si>
     <t>course_name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Tên khóa h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c</t>
+    </r>
   </si>
   <si>
     <t>VIET CAU SQL TAI DAY</t>
@@ -956,179 +2411,22 @@
   <si>
     <t>float</t>
   </si>
-  <si>
-    <t>＜金額項目の設定方法＞</t>
-  </si>
-  <si>
-    <t>Cách set item số tiền</t>
-  </si>
-  <si>
-    <t>1. 決済金額を算出する。</t>
-  </si>
-  <si>
-    <t>Tính số tiền thanh toán</t>
-  </si>
-  <si>
-    <t>取引種別、還元率に応じて、以下の内容で決済金額を算出する。</t>
-  </si>
-  <si>
-    <t>Tính toán số tiền thanh toán theo nội dung bên dưới  tương ứng với (phân loại giao dịch), tỉ lệ quy đổi điểm thành tiền.</t>
-  </si>
-  <si>
-    <t>・取引種別が"02"（即時充当適用後売上） 且つ 還元率が「2%」の場合</t>
-  </si>
-  <si>
-    <t>Trường hợp 取引種別(phân loại giao dịch) là "02"（即時充当適用後売上） AND  還元率(tỉ lệ quy đổi điểm thành tiền.) là 「2%」
-決済データ（レコード単位）.決済金額 (data thanh toán(đơn vị record).số tiền thanh toán) ÷ 0.98 * Bỏ phần từ sau dấu thập phân</t>
-  </si>
-  <si>
-    <t>決済データ（レコード単位）.決済金額 ÷ 0.98　※小数点以下切り捨て</t>
-  </si>
-  <si>
-    <t>・取引種別が"02"（即時充当適用後売上） 且つ 還元率が「5%」の場合</t>
-  </si>
-  <si>
-    <t>Trường hợp 取引種別(phân loại giao dịch) là "02"（即時充当適用後売上） AND  還元率(tỉ lệ quy đổi điểm thành tiền.) là 「5%」
-決済データ（レコード単位）.決済金額 (data thanh toán(đơn vị record).số tiền thanh toán) ÷ 0.95 * Bỏ phần từ sau dấu thập phân</t>
-  </si>
-  <si>
-    <t>決済データ（レコード単位）.決済金額 ÷ 0.95　※小数点以下切り捨て</t>
-  </si>
-  <si>
-    <t>・上記以外の場合</t>
-  </si>
-  <si>
-    <t>Trường hợp khác
-決済データ（レコード単位）.決済金額(data thanh toán(đơn vị record))</t>
-  </si>
-  <si>
-    <t>決済データ（レコード単位）.決済金額</t>
-  </si>
-  <si>
-    <t>2. 補助金額を算出する。</t>
-  </si>
-  <si>
-    <t>Tính số tiền phụ cấp</t>
-  </si>
-  <si>
-    <t>※下記の編集後決済金額とは、「1. 決済金額を算出する。」によって編集された決済金額を指す。</t>
-  </si>
-  <si>
-    <t>SỐ tiền thanh toán sau khi edit bên dưới chỉ ra số tiền thanh toán đã được edit dựa vào phần「1. 決済金額を算出する。」 (tính số tiền thanh toán)</t>
-  </si>
-  <si>
-    <t>・決済データ（レコード単位）.消費者還元計算区分が'3'（レコード単位・還元率計算）の場合</t>
-  </si>
-  <si>
-    <t>編集後決済金額 × 決済データ（レコード単位）.還元率（%）　※小数点以下切り捨て</t>
-  </si>
-  <si>
-    <t>Trường hợp決済データ（レコード単位）.消費者還元計算区分(data thanh toán(đơn vị record).Phân loại tính quy đổi điểm thành tiền cho người tiêu dùng)là '3'（レコード単位・還元率計算）(đơn vị record/tính toán tỉ lệ quy đổi điểm thành tiền)
-編集後決済金額(số tiền thanh toán sau edit × 決済データ（レコード単位）.還元率（%）(data thanh toán(đơn vị record).tỉ lệ quy đổi điểm thành tiền)　* Bỏ phần từ sau dấu thập phân</t>
-  </si>
-  <si>
-    <t>・決済データ（レコード単位）.消費者還元計算区分が'4'（レコード単位・ポイント計算）の場合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">編集後決済金額 ÷ 決済データ（レコード単位）.ポイント計算単位（円） × </t>
-  </si>
-  <si>
-    <t>決済データ（レコード単位）.ポイント計算単位（ポイント） × 決済データ（レコード単位）.ポイント円換算価値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp決済データ（レコード単位）.消費者還元計算区分(data thanh toán(đơn vị record).Phân loại tính quy đổi điểm thành tiền cho người tiêu dùng)là '4'（レコード単位・ポイント計算）(đơn vị record/tính toán point)
-編集後決済金額(số tiền thanh toán sau edit) ÷ 決済データ（レコード単位）.ポイント計算単位（円）(data thanh toán(đơn vị record).đơn vị tính point) × 
-                決済データ（レコード単位）.ポイント計算単位（ポイント）(data thanh toán(đơn vị record).đơn vị tính point) × 決済データ（レコード単位）.ポイント円換算価値(data thanh toán(đơn vị record).giá trị tính quy đổi point sang yên) </t>
-  </si>
-  <si>
-    <t>※</t>
-  </si>
-  <si>
-    <t>「編集後決済金額 ÷ 決済データ（レコード単位）.ポイント計算単位（円）」の計算結果について、小数点以下切り捨て</t>
-  </si>
-  <si>
-    <t>最終的な計算結果についても小数点以下切り捨て</t>
-  </si>
-  <si>
-    <t>※Về kết quả tính toán của phép tính 「編集後決済金額(số tiền thanh toán sau edit) ÷ 決済データ（レコード単位）.ポイント計算単位（円）(data thanh toán(đơn vị record).đơn vị tính point)」  * Bỏ phần từ sau dấu thập phân
-Về kết quả tính cuối cùng thì cũng bỏ phần từ sau dấu thập phân</t>
-  </si>
-  <si>
-    <t>3. 算出した決済金額と補助金額を集計する。</t>
-  </si>
-  <si>
-    <t>Thống kê số tiền thanh toán, số tiền phụ cấp đã tính toán</t>
-  </si>
-  <si>
-    <t>集約単位</t>
-  </si>
-  <si>
-    <t>Đơn vị  tập hợp</t>
-  </si>
-  <si>
-    <t>A型事業者ID,</t>
-  </si>
-  <si>
-    <t>ID doanh nghiệp kiểu A</t>
-  </si>
-  <si>
-    <t>B型事業者ID,</t>
-  </si>
-  <si>
-    <t>ID doanh nghiệp kiểu B</t>
-  </si>
-  <si>
-    <t>A型事業者サービスID,</t>
-  </si>
-  <si>
-    <t>Service ID doanh nghiệp kiểu A</t>
-  </si>
-  <si>
-    <t>加盟店ID,</t>
-  </si>
-  <si>
-    <t>Merchant ID</t>
-  </si>
-  <si>
-    <t>還元率,</t>
-  </si>
-  <si>
-    <t>Tỉ lệ quy đổi từ point sang yên</t>
-  </si>
-  <si>
-    <t>取引種別,</t>
-  </si>
-  <si>
-    <t>Phân loại giao dịch</t>
-  </si>
-  <si>
-    <t>処理日,</t>
-  </si>
-  <si>
-    <t>Ngày xử lý</t>
-  </si>
-  <si>
-    <t>計算区分</t>
-  </si>
-  <si>
-    <t>Phân loại tính toán</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="71">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1344,6 +2642,20 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1384,16 +2696,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,13 +2711,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1429,21 +2786,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,7 +2809,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,60 +2831,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,8 +2848,26 @@
       <name val="DejaVu Sans"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="DejaVu Sans"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,7 +2906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,13 +2936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,19 +2960,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,61 +3002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,31 +3026,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,24 +3086,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1943,6 +3291,123 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1967,17 +3432,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1997,32 +3482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2031,156 +3490,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="52" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="20" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="52" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="52" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="52" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="48" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2358,7 +3808,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="12" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2556,10 +4006,10 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="12" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="12" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,76 +4182,154 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="35" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="35" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="58" fontId="43" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="41" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="17" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="42" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="44" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="43" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="45" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="44" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2939,13 +4467,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>59040</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2955,7 +4483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15654655" y="11915775"/>
+          <a:off x="15654655" y="13573125"/>
           <a:ext cx="196850" cy="283210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2984,15 +4512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>60270</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3001,8 +4529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5899785" y="1325880"/>
-          <a:ext cx="1048385" cy="315595"/>
+          <a:off x="5909310" y="1316355"/>
+          <a:ext cx="1048385" cy="314960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3040,15 +4568,12 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman" pitchFamily="12"/>
             </a:rPr>
-            <a:t>処理開始</a:t>
+            <a:t>Bắt đầu xử lý</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman" pitchFamily="12"/>
           </a:endParaRPr>
         </a:p>
@@ -3058,138 +4583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6410325" y="1642110"/>
-          <a:ext cx="6350" cy="618490"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:round/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6450330" y="3639185"/>
-          <a:ext cx="4445" cy="697865"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:round/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>75495</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10060</xdr:rowOff>
+      <xdr:colOff>94545</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19585</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3198,7 +4601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5626100" y="3077845"/>
+          <a:off x="5645150" y="4801870"/>
           <a:ext cx="1581150" cy="560705"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3254,13 +4657,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>15120</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>199440</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3270,7 +4673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6235065" y="7016750"/>
+          <a:off x="6235065" y="7874000"/>
           <a:ext cx="184785" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3300,13 +4703,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>190440</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3316,7 +4719,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6226175" y="8115300"/>
+          <a:off x="6226175" y="8972550"/>
           <a:ext cx="184150" cy="282575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3346,13 +4749,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>171360</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3362,7 +4765,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6190615" y="8115300"/>
+          <a:off x="6190615" y="8972550"/>
           <a:ext cx="200660" cy="282575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3392,13 +4795,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>190440</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>163440</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3408,7 +4811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6182360" y="8115300"/>
+          <a:off x="6182360" y="8972550"/>
           <a:ext cx="201295" cy="282575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3438,13 +4841,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>38160</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>11160</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3454,7 +4857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6486525" y="8115300"/>
+          <a:off x="6486525" y="8972550"/>
           <a:ext cx="200660" cy="282575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3483,15 +4886,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>41400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:colOff>69825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157955</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3500,8 +4903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5859780" y="2202815"/>
-          <a:ext cx="1085850" cy="488950"/>
+          <a:off x="5888355" y="2098040"/>
+          <a:ext cx="1085215" cy="488315"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3554,77 +4957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>213995</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6417310" y="2634615"/>
-          <a:ext cx="32385" cy="443230"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:round/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>196355</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3633,7 +4975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7203440" y="3048635"/>
+          <a:off x="7118350" y="4725035"/>
           <a:ext cx="438150" cy="252730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3681,15 +5023,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:colOff>185705</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116735</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3698,8 +5040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6485255" y="3616325"/>
-          <a:ext cx="386715" cy="252730"/>
+          <a:off x="6475730" y="5378450"/>
+          <a:ext cx="386080" cy="252730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3756,15 +5098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:colOff>113030</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3773,13 +5115,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6418580" y="3358515"/>
-          <a:ext cx="807720" cy="3571875"/>
+          <a:off x="6437630" y="5053965"/>
+          <a:ext cx="807720" cy="3180715"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val -232523"/>
-            <a:gd name="adj2" fmla="val 79527"/>
+            <a:gd name="adj2" fmla="val 92055"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -3806,15 +5148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:colOff>21540</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>122835</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3823,8 +5165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5939790" y="6930390"/>
-          <a:ext cx="986155" cy="479425"/>
+          <a:off x="5939790" y="8244840"/>
+          <a:ext cx="985520" cy="478790"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3874,25 +5216,6 @@
             <a:latin typeface="Times New Roman" pitchFamily="12"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>của Batch</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman" pitchFamily="12"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3900,15 +5223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:colOff>145690</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3917,8 +5240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7012305" y="4524375"/>
-          <a:ext cx="4787265" cy="30480"/>
+          <a:off x="7050405" y="6029325"/>
+          <a:ext cx="4786630" cy="30480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3965,13 +5288,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>108360</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>36000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3981,7 +5304,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11799570" y="4247515"/>
+          <a:off x="11799570" y="5104765"/>
           <a:ext cx="1979295" cy="614680"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -4022,12 +5345,12 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman" pitchFamily="12"/>
             </a:rPr>
             <a:t>course</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman" pitchFamily="12"/>
           </a:endParaRPr>
         </a:p>
@@ -4037,16 +5360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>13190</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>93730</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4055,8 +5378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4995545" y="10354945"/>
-          <a:ext cx="6708775" cy="53975"/>
+          <a:off x="6752590" y="12021820"/>
+          <a:ext cx="4951730" cy="76200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4103,13 +5426,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>155880</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>83520</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4119,7 +5442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11619230" y="10000615"/>
+          <a:off x="11619230" y="11657965"/>
           <a:ext cx="1979295" cy="728980"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -4176,15 +5499,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>104760</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:colOff>59665</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100805</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4193,8 +5516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5868670" y="4279265"/>
-          <a:ext cx="1085850" cy="488950"/>
+          <a:off x="5878195" y="5812790"/>
+          <a:ext cx="1085215" cy="488315"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4263,138 +5586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6450330" y="4711700"/>
-          <a:ext cx="4445" cy="547370"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:round/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>199080</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6419215" y="5820410"/>
-          <a:ext cx="30480" cy="1109980"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:round/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>104070</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86170</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4403,8 +5604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5645150" y="5259070"/>
-          <a:ext cx="1581785" cy="561340"/>
+          <a:off x="5654675" y="6754495"/>
+          <a:ext cx="1581150" cy="560705"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4461,15 +5662,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:colOff>190170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123255</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4478,7 +5679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7227570" y="5539740"/>
+          <a:off x="7303770" y="7006590"/>
           <a:ext cx="1842135" cy="3175"/>
         </a:xfrm>
         <a:custGeom>
@@ -4521,16 +5722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:colOff>54565</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4539,8 +5740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477885" y="5836285"/>
-          <a:ext cx="1179195" cy="224155"/>
+          <a:off x="8515350" y="7245985"/>
+          <a:ext cx="1178560" cy="223520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4597,15 +5798,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:colOff>24545</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4614,8 +5815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6994525" y="5238115"/>
-          <a:ext cx="437515" cy="253365"/>
+          <a:off x="6946900" y="6666865"/>
+          <a:ext cx="437515" cy="252730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4664,16 +5865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>214055</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153205</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4682,7 +5883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6421755" y="5815330"/>
+          <a:off x="6487795" y="7301230"/>
           <a:ext cx="402590" cy="252730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4732,16 +5933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>135360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>20790</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>75420</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4750,8 +5951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="5423535"/>
-          <a:ext cx="1605280" cy="224155"/>
+          <a:off x="7371715" y="6909435"/>
+          <a:ext cx="1604645" cy="223520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4789,13 +5990,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>roll back </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>revert data đã đăng ký</a:t>
+            <a:t>data đã đăng ký</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman" pitchFamily="12"/>
@@ -4803,6 +6013,918 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6431280" y="2586355"/>
+          <a:ext cx="31115" cy="642620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6431280" y="1631315"/>
+          <a:ext cx="2540" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6421120" y="5362575"/>
+          <a:ext cx="15240" cy="450215"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6421120" y="6301105"/>
+          <a:ext cx="24765" cy="453390"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6433185" y="7315200"/>
+          <a:ext cx="25400" cy="920115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6518275" y="7536180"/>
+          <a:ext cx="5252720" cy="76200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12600">
+          <a:custDash>
+            <a:ds d="400000" sp="300000"/>
+          </a:custDash>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12005310" y="7115175"/>
+          <a:ext cx="1605280" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>page new course </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Decision 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5165725" y="3228975"/>
+          <a:ext cx="2593340" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>session admin or teacher?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6436360" y="4171950"/>
+          <a:ext cx="26035" cy="629920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="4143375"/>
+          <a:ext cx="386080" cy="252730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman" pitchFamily="12"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman" pitchFamily="12"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman" pitchFamily="12"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4709795" y="3343275"/>
+          <a:ext cx="438150" cy="252730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman" pitchFamily="12"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman" pitchFamily="12"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Flowchart: Process 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3627755" y="6124575"/>
+          <a:ext cx="1120775" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>page login </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Elbow Connector 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4187825" y="3700780"/>
+          <a:ext cx="977900" cy="2423795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18732</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>212407</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Elbow Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="4497070" y="6308090"/>
+          <a:ext cx="1624965" cy="2245360"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82844"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5086,141 +7208,141 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:6">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="E1" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="203">
+      <c r="F1" s="229">
         <f>MAX(B4:B17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="190" t="s">
+      <c r="D3" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="190" t="s">
+      <c r="F3" s="216" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="2:6">
-      <c r="B4" s="191">
+      <c r="B4" s="217">
         <v>1</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="192" t="s">
+      <c r="D4" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="204">
+      <c r="E4" s="230">
         <v>43501</v>
       </c>
-      <c r="F4" s="193" t="s">
+      <c r="F4" s="219" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="193"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="193"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="193"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="219"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="206"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="232"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="193"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="193"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="219"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="195"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="193"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="193"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="219"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="193"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="193"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="219"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="193"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="193"/>
+      <c r="B12" s="219"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="219"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="197"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="197"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="223"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="199"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="199"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="225"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="201"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="201"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="227"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="199"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="199"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="225"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="193"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
     </row>
   </sheetData>
   <pageMargins left="0.39375" right="0.39375" top="0.590277777777778" bottom="0.590972222222222" header="0.511805555555555" footer="0.315277777777778"/>
@@ -5233,13 +7355,646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:O32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="210"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="211"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="211"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="212"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="213"/>
+    </row>
+    <row r="7" ht="15.75" spans="2:15">
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="205"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="213"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="213"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="199"/>
+      <c r="O9" s="213"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="198"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="206"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="199"/>
+      <c r="O10" s="213"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="199"/>
+      <c r="O11" s="213"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="198"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="213"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="198"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="213"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="198"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="199"/>
+      <c r="O14" s="213"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
+      <c r="O15" s="213"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="199"/>
+      <c r="O16" s="213"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="198"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="199"/>
+      <c r="O17" s="213"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="198"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="213"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+      <c r="O19" s="213"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="199"/>
+      <c r="O20" s="213"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+      <c r="O21" s="213"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="198"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="206" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="207"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="199"/>
+      <c r="M22" s="199"/>
+      <c r="N22" s="199"/>
+      <c r="O22" s="213"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="198"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="213"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="198"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="213"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="198"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="213"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="198"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="213"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="198"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="199"/>
+      <c r="M27" s="199"/>
+      <c r="N27" s="199"/>
+      <c r="O27" s="213"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="198"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="199"/>
+      <c r="O28" s="213"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="198"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="199"/>
+      <c r="O29" s="213"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="198"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="213"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="198"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="213"/>
+    </row>
+    <row r="32" ht="13.5" spans="2:15">
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="214"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E22:G22"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22">
+      <formula1>"Serminar, Internal, External"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="189"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="191" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="190" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BK67"/>
+  <dimension ref="B1:BK76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="BD29" sqref="BD29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5266,7 +8021,7 @@
       <c r="K1" s="134"/>
       <c r="L1" s="134"/>
       <c r="M1" s="154" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N1" s="154"/>
       <c r="O1" s="154"/>
@@ -5286,7 +8041,7 @@
       <c r="AC1" s="154"/>
       <c r="AD1" s="154"/>
       <c r="AE1" s="51" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -5309,7 +8064,7 @@
       <c r="AX1" s="51"/>
       <c r="AY1" s="51"/>
       <c r="AZ1" s="57" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="BA1" s="57"/>
       <c r="BB1" s="58" t="e">
@@ -5387,7 +8142,7 @@
       <c r="AX2" s="172"/>
       <c r="AY2" s="172"/>
       <c r="AZ2" s="57" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="BA2" s="57"/>
       <c r="BB2" s="58" t="e">
@@ -5473,7 +8228,7 @@
     </row>
     <row r="4" s="132" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B4" s="135" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C4" s="136"/>
       <c r="D4" s="137"/>
@@ -5487,7 +8242,7 @@
       <c r="L4" s="137"/>
       <c r="M4" s="137"/>
       <c r="N4" s="135" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O4" s="156"/>
       <c r="P4" s="157"/>
@@ -5523,13 +8278,13 @@
       <c r="AT4" s="157"/>
       <c r="AU4" s="156"/>
       <c r="AV4" s="175" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AW4" s="157"/>
       <c r="AX4" s="157"/>
       <c r="AY4" s="157"/>
       <c r="AZ4" s="135" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="BA4" s="157"/>
       <c r="BB4" s="157"/>
@@ -5685,7 +8440,7 @@
       <c r="N7" s="159"/>
       <c r="O7" s="140"/>
       <c r="P7" s="161" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="162"/>
       <c r="R7" s="162"/>
@@ -5693,7 +8448,7 @@
       <c r="T7" s="162"/>
       <c r="U7" s="162"/>
       <c r="V7" s="162" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="W7" s="162"/>
       <c r="X7" s="162"/>
@@ -6328,20 +9083,20 @@
       <c r="AC17" s="170"/>
       <c r="AD17" s="170"/>
       <c r="AE17" s="170"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="170"/>
-      <c r="AH17" s="170"/>
-      <c r="AI17" s="170"/>
-      <c r="AJ17" s="170"/>
-      <c r="AK17" s="170"/>
-      <c r="AL17" s="170"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="170"/>
-      <c r="AO17" s="170"/>
-      <c r="AP17" s="170"/>
-      <c r="AQ17" s="170"/>
-      <c r="AR17" s="170"/>
-      <c r="AS17" s="170"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="174"/>
+      <c r="AH17" s="174"/>
+      <c r="AI17" s="174"/>
+      <c r="AJ17" s="174"/>
+      <c r="AK17" s="174"/>
+      <c r="AL17" s="174"/>
+      <c r="AM17" s="174"/>
+      <c r="AN17" s="174"/>
+      <c r="AO17" s="174"/>
+      <c r="AP17" s="174"/>
+      <c r="AQ17" s="174"/>
+      <c r="AR17" s="174"/>
+      <c r="AS17" s="174"/>
       <c r="AT17" s="163"/>
       <c r="AV17" s="176"/>
       <c r="AW17" s="179"/>
@@ -6390,20 +9145,20 @@
       <c r="AC18" s="170"/>
       <c r="AD18" s="170"/>
       <c r="AE18" s="170"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="170"/>
-      <c r="AJ18" s="170"/>
-      <c r="AK18" s="170"/>
-      <c r="AL18" s="170"/>
-      <c r="AM18" s="170"/>
-      <c r="AN18" s="170"/>
-      <c r="AO18" s="170"/>
-      <c r="AP18" s="170"/>
-      <c r="AQ18" s="170"/>
-      <c r="AR18" s="170"/>
-      <c r="AS18" s="170"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="174"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="174"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="174"/>
+      <c r="AO18" s="174"/>
+      <c r="AP18" s="174"/>
+      <c r="AQ18" s="174"/>
+      <c r="AR18" s="174"/>
+      <c r="AS18" s="174"/>
       <c r="AT18" s="163"/>
       <c r="AV18" s="176"/>
       <c r="AW18" s="179"/>
@@ -6452,20 +9207,20 @@
       <c r="AC19" s="170"/>
       <c r="AD19" s="170"/>
       <c r="AE19" s="170"/>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="170"/>
-      <c r="AH19" s="170"/>
-      <c r="AI19" s="170"/>
-      <c r="AJ19" s="170"/>
-      <c r="AK19" s="170"/>
-      <c r="AL19" s="170"/>
-      <c r="AM19" s="170"/>
-      <c r="AN19" s="170"/>
-      <c r="AO19" s="170"/>
-      <c r="AP19" s="170"/>
-      <c r="AQ19" s="170"/>
-      <c r="AR19" s="170"/>
-      <c r="AS19" s="170"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="174"/>
+      <c r="AH19" s="174"/>
+      <c r="AI19" s="174"/>
+      <c r="AJ19" s="174"/>
+      <c r="AK19" s="174"/>
+      <c r="AL19" s="174"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="174"/>
+      <c r="AO19" s="174"/>
+      <c r="AP19" s="174"/>
+      <c r="AQ19" s="174"/>
+      <c r="AR19" s="174"/>
+      <c r="AS19" s="174"/>
       <c r="AT19" s="163"/>
       <c r="AV19" s="176"/>
       <c r="AW19" s="179"/>
@@ -6514,20 +9269,20 @@
       <c r="AC20" s="170"/>
       <c r="AD20" s="170"/>
       <c r="AE20" s="170"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="170"/>
-      <c r="AH20" s="170"/>
-      <c r="AI20" s="170"/>
-      <c r="AJ20" s="170"/>
-      <c r="AK20" s="170"/>
-      <c r="AL20" s="170"/>
-      <c r="AM20" s="170"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="170"/>
-      <c r="AQ20" s="170"/>
-      <c r="AR20" s="170"/>
-      <c r="AS20" s="170"/>
+      <c r="AF20" s="174"/>
+      <c r="AG20" s="174"/>
+      <c r="AH20" s="174"/>
+      <c r="AI20" s="174"/>
+      <c r="AJ20" s="174"/>
+      <c r="AK20" s="174"/>
+      <c r="AL20" s="174"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="174"/>
+      <c r="AO20" s="174"/>
+      <c r="AP20" s="174"/>
+      <c r="AQ20" s="174"/>
+      <c r="AR20" s="174"/>
+      <c r="AS20" s="174"/>
       <c r="AT20" s="163"/>
       <c r="AV20" s="176"/>
       <c r="AW20" s="179"/>
@@ -6576,29 +9331,29 @@
       <c r="AC21" s="170"/>
       <c r="AD21" s="170"/>
       <c r="AE21" s="170"/>
-      <c r="AF21" s="170"/>
-      <c r="AG21" s="170"/>
-      <c r="AH21" s="170"/>
-      <c r="AI21" s="170"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="170"/>
-      <c r="AL21" s="170"/>
-      <c r="AM21" s="170"/>
-      <c r="AN21" s="170"/>
-      <c r="AO21" s="170"/>
-      <c r="AP21" s="170"/>
-      <c r="AQ21" s="170"/>
-      <c r="AR21" s="170"/>
-      <c r="AS21" s="170"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="174"/>
+      <c r="AH21" s="174"/>
+      <c r="AI21" s="174"/>
+      <c r="AJ21" s="174"/>
+      <c r="AK21" s="174"/>
+      <c r="AL21" s="174"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="174"/>
+      <c r="AO21" s="174"/>
+      <c r="AP21" s="174"/>
+      <c r="AQ21" s="174"/>
+      <c r="AR21" s="174"/>
+      <c r="AS21" s="174"/>
       <c r="AT21" s="163"/>
-      <c r="AV21" s="159"/>
-      <c r="AW21" s="151"/>
-      <c r="AX21" s="151"/>
-      <c r="AY21" s="178"/>
-      <c r="AZ21" s="151"/>
-      <c r="BA21" s="140"/>
-      <c r="BB21" s="140"/>
-      <c r="BC21" s="140"/>
+      <c r="AV21" s="176"/>
+      <c r="AW21" s="179"/>
+      <c r="AX21" s="179"/>
+      <c r="AY21" s="180"/>
+      <c r="AZ21" s="181"/>
+      <c r="BA21" s="181"/>
+      <c r="BB21" s="181"/>
+      <c r="BC21" s="181"/>
       <c r="BD21" s="140"/>
       <c r="BE21" s="151"/>
       <c r="BF21" s="151"/>
@@ -6638,7 +9393,7 @@
       <c r="AC22" s="170"/>
       <c r="AD22" s="170"/>
       <c r="AE22" s="170"/>
-      <c r="AF22" s="170"/>
+      <c r="AF22" s="173"/>
       <c r="AG22" s="170"/>
       <c r="AH22" s="170"/>
       <c r="AI22" s="170"/>
@@ -6653,14 +9408,14 @@
       <c r="AR22" s="170"/>
       <c r="AS22" s="170"/>
       <c r="AT22" s="163"/>
-      <c r="AV22" s="159"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="151"/>
-      <c r="AY22" s="178"/>
-      <c r="AZ22" s="151"/>
-      <c r="BA22" s="140"/>
-      <c r="BB22" s="140"/>
-      <c r="BC22" s="140"/>
+      <c r="AV22" s="176"/>
+      <c r="AW22" s="179"/>
+      <c r="AX22" s="179"/>
+      <c r="AY22" s="180"/>
+      <c r="AZ22" s="181"/>
+      <c r="BA22" s="181"/>
+      <c r="BB22" s="181"/>
+      <c r="BC22" s="181"/>
       <c r="BD22" s="140"/>
       <c r="BE22" s="151"/>
       <c r="BF22" s="151"/>
@@ -6715,14 +9470,14 @@
       <c r="AR23" s="170"/>
       <c r="AS23" s="170"/>
       <c r="AT23" s="163"/>
-      <c r="AV23" s="159"/>
-      <c r="AW23" s="151"/>
-      <c r="AX23" s="151"/>
-      <c r="AY23" s="178"/>
-      <c r="AZ23" s="151"/>
-      <c r="BA23" s="140"/>
-      <c r="BB23" s="140"/>
-      <c r="BC23" s="140"/>
+      <c r="AV23" s="176"/>
+      <c r="AW23" s="179"/>
+      <c r="AX23" s="179"/>
+      <c r="AY23" s="180"/>
+      <c r="AZ23" s="181"/>
+      <c r="BA23" s="181"/>
+      <c r="BB23" s="181"/>
+      <c r="BC23" s="181"/>
       <c r="BD23" s="140"/>
       <c r="BE23" s="151"/>
       <c r="BF23" s="151"/>
@@ -6777,14 +9532,14 @@
       <c r="AR24" s="170"/>
       <c r="AS24" s="170"/>
       <c r="AT24" s="163"/>
-      <c r="AV24" s="159"/>
-      <c r="AW24" s="151"/>
-      <c r="AX24" s="151"/>
-      <c r="AY24" s="178"/>
-      <c r="AZ24" s="151"/>
-      <c r="BA24" s="140"/>
-      <c r="BB24" s="140"/>
-      <c r="BC24" s="140"/>
+      <c r="AV24" s="176"/>
+      <c r="AW24" s="179"/>
+      <c r="AX24" s="179"/>
+      <c r="AY24" s="180"/>
+      <c r="AZ24" s="181"/>
+      <c r="BA24" s="181"/>
+      <c r="BB24" s="181"/>
+      <c r="BC24" s="181"/>
       <c r="BD24" s="140"/>
       <c r="BE24" s="151"/>
       <c r="BF24" s="151"/>
@@ -6839,14 +9594,14 @@
       <c r="AR25" s="170"/>
       <c r="AS25" s="170"/>
       <c r="AT25" s="163"/>
-      <c r="AV25" s="159"/>
-      <c r="AW25" s="151"/>
-      <c r="AX25" s="151"/>
-      <c r="AY25" s="178"/>
-      <c r="AZ25" s="151"/>
-      <c r="BA25" s="140"/>
-      <c r="BB25" s="140"/>
-      <c r="BC25" s="140"/>
+      <c r="AV25" s="176"/>
+      <c r="AW25" s="179"/>
+      <c r="AX25" s="179"/>
+      <c r="AY25" s="180"/>
+      <c r="AZ25" s="181"/>
+      <c r="BA25" s="181"/>
+      <c r="BB25" s="181"/>
+      <c r="BC25" s="181"/>
       <c r="BD25" s="140"/>
       <c r="BE25" s="151"/>
       <c r="BF25" s="151"/>
@@ -7788,14 +10543,18 @@
     </row>
     <row r="41" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B41" s="138"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="139"/>
       <c r="G41" s="151"/>
       <c r="H41" s="151"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="164"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="138"/>
       <c r="P41" s="163"/>
       <c r="Q41" s="170"/>
       <c r="R41" s="170"/>
@@ -7827,12 +10586,12 @@
       <c r="AR41" s="170"/>
       <c r="AS41" s="170"/>
       <c r="AT41" s="163"/>
-      <c r="AV41" s="177"/>
-      <c r="AW41" s="153"/>
-      <c r="AX41" s="153"/>
-      <c r="AY41" s="182"/>
-      <c r="AZ41" s="183"/>
-      <c r="BA41" s="184"/>
+      <c r="AV41" s="159"/>
+      <c r="AW41" s="151"/>
+      <c r="AX41" s="151"/>
+      <c r="AY41" s="178"/>
+      <c r="AZ41" s="151"/>
+      <c r="BA41" s="140"/>
       <c r="BB41" s="140"/>
       <c r="BC41" s="140"/>
       <c r="BD41" s="140"/>
@@ -7846,18 +10605,18 @@
     </row>
     <row r="42" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B42" s="138"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="152"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="151"/>
       <c r="H42" s="151"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="164"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="138"/>
       <c r="P42" s="163"/>
       <c r="Q42" s="170"/>
       <c r="R42" s="170"/>
@@ -7889,12 +10648,12 @@
       <c r="AR42" s="170"/>
       <c r="AS42" s="170"/>
       <c r="AT42" s="163"/>
-      <c r="AV42" s="177"/>
-      <c r="AW42" s="153"/>
-      <c r="AX42" s="153"/>
-      <c r="AY42" s="182"/>
-      <c r="AZ42" s="183"/>
-      <c r="BA42" s="184"/>
+      <c r="AV42" s="159"/>
+      <c r="AW42" s="151"/>
+      <c r="AX42" s="151"/>
+      <c r="AY42" s="178"/>
+      <c r="AZ42" s="151"/>
+      <c r="BA42" s="140"/>
       <c r="BB42" s="140"/>
       <c r="BC42" s="140"/>
       <c r="BD42" s="140"/>
@@ -7908,20 +10667,18 @@
     </row>
     <row r="43" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B43" s="138"/>
-      <c r="C43" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="152"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="151"/>
       <c r="H43" s="151"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="164"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="138"/>
       <c r="P43" s="163"/>
       <c r="Q43" s="170"/>
       <c r="R43" s="170"/>
@@ -7942,23 +10699,23 @@
       <c r="AG43" s="170"/>
       <c r="AH43" s="170"/>
       <c r="AI43" s="170"/>
-      <c r="AJ43" s="174"/>
-      <c r="AK43" s="174"/>
-      <c r="AL43" s="174"/>
-      <c r="AM43" s="174"/>
-      <c r="AN43" s="174"/>
-      <c r="AO43" s="174"/>
-      <c r="AP43" s="174"/>
-      <c r="AQ43" s="174"/>
+      <c r="AJ43" s="170"/>
+      <c r="AK43" s="170"/>
+      <c r="AL43" s="170"/>
+      <c r="AM43" s="170"/>
+      <c r="AN43" s="170"/>
+      <c r="AO43" s="170"/>
+      <c r="AP43" s="170"/>
+      <c r="AQ43" s="170"/>
       <c r="AR43" s="170"/>
       <c r="AS43" s="170"/>
       <c r="AT43" s="163"/>
-      <c r="AV43" s="177"/>
-      <c r="AW43" s="153"/>
-      <c r="AX43" s="153"/>
-      <c r="AY43" s="182"/>
-      <c r="AZ43" s="183"/>
-      <c r="BA43" s="184"/>
+      <c r="AV43" s="159"/>
+      <c r="AW43" s="151"/>
+      <c r="AX43" s="151"/>
+      <c r="AY43" s="178"/>
+      <c r="AZ43" s="151"/>
+      <c r="BA43" s="140"/>
       <c r="BB43" s="140"/>
       <c r="BC43" s="140"/>
       <c r="BD43" s="140"/>
@@ -7972,18 +10729,18 @@
     </row>
     <row r="44" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B44" s="138"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="152"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="151"/>
       <c r="H44" s="151"/>
       <c r="I44" s="151"/>
       <c r="J44" s="151"/>
       <c r="K44" s="151"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
-      <c r="N44" s="164"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="138"/>
       <c r="P44" s="163"/>
       <c r="Q44" s="170"/>
       <c r="R44" s="170"/>
@@ -8004,24 +10761,24 @@
       <c r="AG44" s="170"/>
       <c r="AH44" s="170"/>
       <c r="AI44" s="170"/>
-      <c r="AJ44" s="174"/>
-      <c r="AK44" s="174"/>
-      <c r="AL44" s="174"/>
-      <c r="AM44" s="174"/>
-      <c r="AN44" s="174"/>
-      <c r="AO44" s="174"/>
-      <c r="AP44" s="174"/>
-      <c r="AQ44" s="174"/>
+      <c r="AJ44" s="170"/>
+      <c r="AK44" s="170"/>
+      <c r="AL44" s="170"/>
+      <c r="AM44" s="170"/>
+      <c r="AN44" s="170"/>
+      <c r="AO44" s="170"/>
+      <c r="AP44" s="170"/>
+      <c r="AQ44" s="170"/>
       <c r="AR44" s="170"/>
       <c r="AS44" s="170"/>
       <c r="AT44" s="163"/>
       <c r="AV44" s="159"/>
       <c r="AW44" s="151"/>
-      <c r="AX44" s="153"/>
-      <c r="AY44" s="182"/>
-      <c r="AZ44" s="153"/>
-      <c r="BA44" s="184"/>
-      <c r="BB44" s="139"/>
+      <c r="AX44" s="151"/>
+      <c r="AY44" s="178"/>
+      <c r="AZ44" s="151"/>
+      <c r="BA44" s="140"/>
+      <c r="BB44" s="140"/>
       <c r="BC44" s="140"/>
       <c r="BD44" s="140"/>
       <c r="BE44" s="151"/>
@@ -8034,18 +10791,18 @@
     </row>
     <row r="45" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B45" s="138"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="152"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="151"/>
       <c r="H45" s="151"/>
       <c r="I45" s="151"/>
       <c r="J45" s="151"/>
       <c r="K45" s="151"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="164"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="138"/>
       <c r="P45" s="163"/>
       <c r="Q45" s="170"/>
       <c r="R45" s="170"/>
@@ -8066,24 +10823,24 @@
       <c r="AG45" s="170"/>
       <c r="AH45" s="170"/>
       <c r="AI45" s="170"/>
-      <c r="AJ45" s="174"/>
-      <c r="AK45" s="174"/>
-      <c r="AL45" s="174"/>
-      <c r="AM45" s="174"/>
-      <c r="AN45" s="174"/>
-      <c r="AO45" s="174"/>
-      <c r="AP45" s="174"/>
-      <c r="AQ45" s="174"/>
+      <c r="AJ45" s="170"/>
+      <c r="AK45" s="170"/>
+      <c r="AL45" s="170"/>
+      <c r="AM45" s="170"/>
+      <c r="AN45" s="170"/>
+      <c r="AO45" s="170"/>
+      <c r="AP45" s="170"/>
+      <c r="AQ45" s="170"/>
       <c r="AR45" s="170"/>
       <c r="AS45" s="170"/>
       <c r="AT45" s="163"/>
-      <c r="AV45" s="177"/>
-      <c r="AW45" s="153"/>
-      <c r="AX45" s="153"/>
-      <c r="AY45" s="182"/>
-      <c r="AZ45" s="153"/>
-      <c r="BA45" s="184"/>
-      <c r="BB45" s="139"/>
+      <c r="AV45" s="159"/>
+      <c r="AW45" s="151"/>
+      <c r="AX45" s="151"/>
+      <c r="AY45" s="178"/>
+      <c r="AZ45" s="151"/>
+      <c r="BA45" s="140"/>
+      <c r="BB45" s="140"/>
       <c r="BC45" s="140"/>
       <c r="BD45" s="140"/>
       <c r="BE45" s="151"/>
@@ -8096,15 +10853,11 @@
     </row>
     <row r="46" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
       <c r="B46" s="138"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="152"/>
+      <c r="G46" s="151"/>
       <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
       <c r="L46" s="153"/>
       <c r="M46" s="153"/>
       <c r="N46" s="164"/>
@@ -8128,14 +10881,14 @@
       <c r="AG46" s="170"/>
       <c r="AH46" s="170"/>
       <c r="AI46" s="170"/>
-      <c r="AJ46" s="174"/>
-      <c r="AK46" s="174"/>
-      <c r="AL46" s="174"/>
-      <c r="AM46" s="174"/>
-      <c r="AN46" s="174"/>
-      <c r="AO46" s="174"/>
-      <c r="AP46" s="174"/>
-      <c r="AQ46" s="174"/>
+      <c r="AJ46" s="170"/>
+      <c r="AK46" s="170"/>
+      <c r="AL46" s="170"/>
+      <c r="AM46" s="170"/>
+      <c r="AN46" s="170"/>
+      <c r="AO46" s="170"/>
+      <c r="AP46" s="170"/>
+      <c r="AQ46" s="170"/>
       <c r="AR46" s="170"/>
       <c r="AS46" s="170"/>
       <c r="AT46" s="163"/>
@@ -8143,9 +10896,9 @@
       <c r="AW46" s="153"/>
       <c r="AX46" s="153"/>
       <c r="AY46" s="182"/>
-      <c r="AZ46" s="153"/>
+      <c r="AZ46" s="183"/>
       <c r="BA46" s="184"/>
-      <c r="BB46" s="139"/>
+      <c r="BB46" s="140"/>
       <c r="BC46" s="140"/>
       <c r="BD46" s="140"/>
       <c r="BE46" s="151"/>
@@ -8156,333 +10909,317 @@
       <c r="BJ46" s="151"/>
       <c r="BK46" s="178"/>
     </row>
-    <row r="47" spans="2:63">
-      <c r="B47" s="145"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="165"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="162"/>
-      <c r="Q47" s="162"/>
-      <c r="R47" s="162"/>
-      <c r="S47" s="162"/>
-      <c r="T47" s="162"/>
-      <c r="U47" s="162"/>
-      <c r="V47" s="162"/>
-      <c r="W47" s="162"/>
-      <c r="X47" s="162"/>
-      <c r="Y47" s="162"/>
-      <c r="Z47" s="162"/>
-      <c r="AA47" s="162"/>
-      <c r="AB47" s="162"/>
-      <c r="AC47" s="162"/>
-      <c r="AD47" s="162"/>
-      <c r="AE47" s="162"/>
-      <c r="AF47" s="162"/>
-      <c r="AG47" s="162"/>
-      <c r="AH47" s="162"/>
-      <c r="AI47" s="162"/>
-      <c r="AJ47" s="162"/>
-      <c r="AK47" s="162"/>
-      <c r="AL47" s="162"/>
-      <c r="AM47" s="162"/>
-      <c r="AN47" s="162"/>
-      <c r="AO47" s="162"/>
-      <c r="AP47" s="162"/>
-      <c r="AQ47" s="162"/>
-      <c r="AR47" s="162"/>
-      <c r="AS47" s="162"/>
-      <c r="AT47" s="162"/>
-      <c r="AU47" s="146"/>
-      <c r="AV47" s="145"/>
-      <c r="AW47" s="146"/>
-      <c r="AX47" s="146"/>
-      <c r="AY47" s="165"/>
-      <c r="AZ47" s="146"/>
-      <c r="BA47" s="146"/>
-      <c r="BB47" s="146"/>
-      <c r="BC47" s="146"/>
-      <c r="BD47" s="146"/>
-      <c r="BE47" s="146"/>
-      <c r="BF47" s="146"/>
-      <c r="BG47" s="146"/>
-      <c r="BH47" s="146"/>
-      <c r="BI47" s="146"/>
-      <c r="BJ47" s="146"/>
-      <c r="BK47" s="146"/>
-    </row>
-    <row r="48" spans="2:63">
-      <c r="B48" s="147"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="148"/>
-      <c r="L48" s="148"/>
-      <c r="M48" s="166"/>
-      <c r="N48" s="148"/>
-      <c r="O48" s="148"/>
-      <c r="P48" s="148"/>
-      <c r="Q48" s="148"/>
-      <c r="R48" s="148"/>
-      <c r="S48" s="148"/>
-      <c r="T48" s="148"/>
-      <c r="U48" s="148"/>
-      <c r="V48" s="148"/>
-      <c r="W48" s="148"/>
-      <c r="X48" s="148"/>
-      <c r="Y48" s="148"/>
-      <c r="Z48" s="148"/>
-      <c r="AA48" s="148"/>
-      <c r="AB48" s="148"/>
-      <c r="AC48" s="148"/>
-      <c r="AD48" s="148"/>
-      <c r="AE48" s="148"/>
-      <c r="AF48" s="148"/>
-      <c r="AG48" s="148"/>
-      <c r="AH48" s="148"/>
-      <c r="AI48" s="148"/>
-      <c r="AJ48" s="148"/>
-      <c r="AK48" s="148"/>
-      <c r="AL48" s="148"/>
-      <c r="AM48" s="148"/>
-      <c r="AN48" s="148"/>
-      <c r="AO48" s="148"/>
-      <c r="AP48" s="148"/>
-      <c r="AQ48" s="148"/>
-      <c r="AR48" s="148"/>
-      <c r="AS48" s="148"/>
-      <c r="AT48" s="148"/>
-      <c r="AU48" s="148"/>
-      <c r="AV48" s="147"/>
-      <c r="AW48" s="148"/>
-      <c r="AX48" s="148"/>
-      <c r="AY48" s="166"/>
-      <c r="AZ48" s="148"/>
-      <c r="BA48" s="185"/>
-      <c r="BB48" s="185"/>
-      <c r="BC48" s="185"/>
-      <c r="BD48" s="185"/>
-      <c r="BE48" s="148"/>
-      <c r="BF48" s="148"/>
-      <c r="BG48" s="148"/>
-      <c r="BH48" s="148"/>
-      <c r="BI48" s="148"/>
-      <c r="BJ48" s="148"/>
-      <c r="BK48" s="148"/>
-    </row>
-    <row r="49" spans="2:63">
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="146"/>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="146"/>
-      <c r="R49" s="146"/>
-      <c r="S49" s="146"/>
-      <c r="T49" s="146"/>
-      <c r="U49" s="146"/>
-      <c r="V49" s="146"/>
-      <c r="W49" s="146"/>
-      <c r="X49" s="146"/>
-      <c r="Y49" s="146"/>
-      <c r="Z49" s="146"/>
-      <c r="AA49" s="146"/>
-      <c r="AB49" s="146"/>
-      <c r="AC49" s="146"/>
-      <c r="AD49" s="146"/>
-      <c r="AE49" s="146"/>
-      <c r="AF49" s="146"/>
-      <c r="AG49" s="146"/>
-      <c r="AH49" s="146"/>
-      <c r="AI49" s="146"/>
-      <c r="AJ49" s="146"/>
-      <c r="AK49" s="146"/>
-      <c r="AL49" s="146"/>
-      <c r="AM49" s="146"/>
-      <c r="AN49" s="146"/>
-      <c r="AO49" s="146"/>
-      <c r="AP49" s="146"/>
-      <c r="AQ49" s="146"/>
-      <c r="AR49" s="146"/>
-      <c r="AS49" s="146"/>
-      <c r="AT49" s="146"/>
-      <c r="AU49" s="146"/>
-      <c r="AV49" s="146"/>
-      <c r="AW49" s="146"/>
-      <c r="AX49" s="146"/>
-      <c r="AY49" s="146"/>
-      <c r="AZ49" s="146"/>
-      <c r="BA49" s="186"/>
-      <c r="BB49" s="186"/>
-      <c r="BC49" s="186"/>
-      <c r="BD49" s="186"/>
-      <c r="BE49" s="146"/>
-      <c r="BF49" s="146"/>
-      <c r="BG49" s="146"/>
-      <c r="BH49" s="146"/>
-      <c r="BI49" s="146"/>
-      <c r="BJ49" s="146"/>
-      <c r="BK49" s="146"/>
-    </row>
-    <row r="50" spans="2:63">
-      <c r="B50" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="136"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="137"/>
-      <c r="M50" s="137"/>
-      <c r="N50" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="O50" s="156"/>
-      <c r="P50" s="157"/>
-      <c r="Q50" s="157"/>
-      <c r="R50" s="157"/>
-      <c r="S50" s="157"/>
-      <c r="T50" s="157"/>
-      <c r="U50" s="157"/>
-      <c r="V50" s="157"/>
-      <c r="W50" s="157"/>
-      <c r="X50" s="157"/>
-      <c r="Y50" s="157"/>
-      <c r="Z50" s="157"/>
-      <c r="AA50" s="157"/>
-      <c r="AB50" s="157"/>
-      <c r="AC50" s="157"/>
-      <c r="AD50" s="157"/>
-      <c r="AE50" s="157"/>
-      <c r="AF50" s="157"/>
-      <c r="AG50" s="157"/>
-      <c r="AH50" s="157"/>
-      <c r="AI50" s="157"/>
-      <c r="AJ50" s="157"/>
-      <c r="AK50" s="157"/>
-      <c r="AL50" s="157"/>
-      <c r="AM50" s="157"/>
-      <c r="AN50" s="157"/>
-      <c r="AO50" s="157"/>
-      <c r="AP50" s="157"/>
-      <c r="AQ50" s="157"/>
-      <c r="AR50" s="157"/>
-      <c r="AS50" s="157"/>
-      <c r="AT50" s="157"/>
-      <c r="AU50" s="156"/>
-      <c r="AV50" s="175" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW50" s="157"/>
-      <c r="AX50" s="157"/>
-      <c r="AY50" s="157"/>
-      <c r="AZ50" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA50" s="157"/>
-      <c r="BB50" s="157"/>
-      <c r="BC50" s="157"/>
-      <c r="BD50" s="157"/>
-      <c r="BE50" s="157"/>
-      <c r="BF50" s="157"/>
-      <c r="BG50" s="157"/>
-      <c r="BH50" s="157"/>
-      <c r="BI50" s="157"/>
-      <c r="BJ50" s="157"/>
-      <c r="BK50" s="188"/>
-    </row>
-    <row r="51" spans="2:63">
-      <c r="B51" s="149"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="150"/>
-      <c r="P51" s="150"/>
-      <c r="Q51" s="150"/>
-      <c r="R51" s="150"/>
-      <c r="S51" s="150"/>
-      <c r="T51" s="150"/>
-      <c r="U51" s="150"/>
-      <c r="V51" s="150"/>
-      <c r="W51" s="150"/>
-      <c r="X51" s="150"/>
-      <c r="Y51" s="150"/>
-      <c r="Z51" s="150"/>
-      <c r="AA51" s="150"/>
-      <c r="AB51" s="150"/>
-      <c r="AC51" s="150"/>
-      <c r="AD51" s="150"/>
-      <c r="AE51" s="150"/>
-      <c r="AF51" s="150"/>
-      <c r="AG51" s="150"/>
-      <c r="AH51" s="150"/>
-      <c r="AI51" s="150"/>
-      <c r="AJ51" s="150"/>
-      <c r="AK51" s="150"/>
-      <c r="AL51" s="150"/>
-      <c r="AM51" s="150"/>
-      <c r="AN51" s="150"/>
-      <c r="AO51" s="150"/>
-      <c r="AP51" s="150"/>
-      <c r="AQ51" s="150"/>
-      <c r="AR51" s="150"/>
-      <c r="AS51" s="150"/>
-      <c r="AT51" s="150"/>
-      <c r="AU51" s="150"/>
-      <c r="AV51" s="149"/>
-      <c r="AW51" s="150"/>
-      <c r="AX51" s="150"/>
-      <c r="AY51" s="167"/>
-      <c r="AZ51" s="150"/>
-      <c r="BA51" s="187"/>
-      <c r="BB51" s="187"/>
-      <c r="BC51" s="187"/>
-      <c r="BD51" s="187"/>
-      <c r="BE51" s="150"/>
-      <c r="BF51" s="150"/>
-      <c r="BG51" s="150"/>
-      <c r="BH51" s="150"/>
-      <c r="BI51" s="150"/>
-      <c r="BJ51" s="150"/>
-      <c r="BK51" s="167"/>
+    <row r="47" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
+      <c r="B47" s="138"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="164"/>
+      <c r="P47" s="163"/>
+      <c r="Q47" s="170"/>
+      <c r="R47" s="170"/>
+      <c r="S47" s="170"/>
+      <c r="T47" s="170"/>
+      <c r="U47" s="170"/>
+      <c r="V47" s="170"/>
+      <c r="W47" s="170"/>
+      <c r="X47" s="170"/>
+      <c r="Y47" s="170"/>
+      <c r="Z47" s="170"/>
+      <c r="AA47" s="170"/>
+      <c r="AB47" s="170"/>
+      <c r="AC47" s="170"/>
+      <c r="AD47" s="170"/>
+      <c r="AE47" s="170"/>
+      <c r="AF47" s="170"/>
+      <c r="AG47" s="170"/>
+      <c r="AH47" s="170"/>
+      <c r="AI47" s="170"/>
+      <c r="AJ47" s="170"/>
+      <c r="AK47" s="170"/>
+      <c r="AL47" s="170"/>
+      <c r="AM47" s="170"/>
+      <c r="AN47" s="170"/>
+      <c r="AO47" s="170"/>
+      <c r="AP47" s="170"/>
+      <c r="AQ47" s="170"/>
+      <c r="AR47" s="170"/>
+      <c r="AS47" s="170"/>
+      <c r="AT47" s="163"/>
+      <c r="AV47" s="177"/>
+      <c r="AW47" s="153"/>
+      <c r="AX47" s="153"/>
+      <c r="AY47" s="182"/>
+      <c r="AZ47" s="183"/>
+      <c r="BA47" s="184"/>
+      <c r="BB47" s="140"/>
+      <c r="BC47" s="140"/>
+      <c r="BD47" s="140"/>
+      <c r="BE47" s="151"/>
+      <c r="BF47" s="151"/>
+      <c r="BG47" s="151"/>
+      <c r="BH47" s="151"/>
+      <c r="BI47" s="151"/>
+      <c r="BJ47" s="151"/>
+      <c r="BK47" s="178"/>
+    </row>
+    <row r="48" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
+      <c r="B48" s="138"/>
+      <c r="C48" s="143" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
+      <c r="N48" s="164"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="170"/>
+      <c r="R48" s="170"/>
+      <c r="S48" s="170"/>
+      <c r="T48" s="170"/>
+      <c r="U48" s="170"/>
+      <c r="V48" s="170"/>
+      <c r="W48" s="170"/>
+      <c r="X48" s="170"/>
+      <c r="Y48" s="170"/>
+      <c r="Z48" s="170"/>
+      <c r="AA48" s="170"/>
+      <c r="AB48" s="170"/>
+      <c r="AC48" s="170"/>
+      <c r="AD48" s="170"/>
+      <c r="AE48" s="170"/>
+      <c r="AF48" s="170"/>
+      <c r="AG48" s="170"/>
+      <c r="AH48" s="170"/>
+      <c r="AI48" s="170"/>
+      <c r="AJ48" s="174"/>
+      <c r="AK48" s="174"/>
+      <c r="AL48" s="174"/>
+      <c r="AM48" s="174"/>
+      <c r="AN48" s="174"/>
+      <c r="AO48" s="174"/>
+      <c r="AP48" s="174"/>
+      <c r="AQ48" s="174"/>
+      <c r="AR48" s="170"/>
+      <c r="AS48" s="170"/>
+      <c r="AT48" s="163"/>
+      <c r="AV48" s="177"/>
+      <c r="AW48" s="153"/>
+      <c r="AX48" s="153"/>
+      <c r="AY48" s="182"/>
+      <c r="AZ48" s="183"/>
+      <c r="BA48" s="184"/>
+      <c r="BB48" s="140"/>
+      <c r="BC48" s="140"/>
+      <c r="BD48" s="140"/>
+      <c r="BE48" s="151"/>
+      <c r="BF48" s="151"/>
+      <c r="BG48" s="151"/>
+      <c r="BH48" s="151"/>
+      <c r="BI48" s="151"/>
+      <c r="BJ48" s="151"/>
+      <c r="BK48" s="178"/>
+    </row>
+    <row r="49" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
+      <c r="B49" s="138"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="164"/>
+      <c r="P49" s="163"/>
+      <c r="Q49" s="170"/>
+      <c r="R49" s="170"/>
+      <c r="S49" s="170"/>
+      <c r="T49" s="170"/>
+      <c r="U49" s="170"/>
+      <c r="V49" s="170"/>
+      <c r="W49" s="170"/>
+      <c r="X49" s="170"/>
+      <c r="Y49" s="170"/>
+      <c r="Z49" s="170"/>
+      <c r="AA49" s="170"/>
+      <c r="AB49" s="170"/>
+      <c r="AC49" s="170"/>
+      <c r="AD49" s="170"/>
+      <c r="AE49" s="170"/>
+      <c r="AF49" s="170"/>
+      <c r="AG49" s="170"/>
+      <c r="AH49" s="170"/>
+      <c r="AI49" s="170"/>
+      <c r="AJ49" s="174"/>
+      <c r="AK49" s="174"/>
+      <c r="AL49" s="174"/>
+      <c r="AM49" s="174"/>
+      <c r="AN49" s="174"/>
+      <c r="AO49" s="174"/>
+      <c r="AP49" s="174"/>
+      <c r="AQ49" s="174"/>
+      <c r="AR49" s="170"/>
+      <c r="AS49" s="170"/>
+      <c r="AT49" s="163"/>
+      <c r="AV49" s="159"/>
+      <c r="AW49" s="151"/>
+      <c r="AX49" s="153"/>
+      <c r="AY49" s="182"/>
+      <c r="AZ49" s="153"/>
+      <c r="BA49" s="184"/>
+      <c r="BB49" s="139"/>
+      <c r="BC49" s="140"/>
+      <c r="BD49" s="140"/>
+      <c r="BE49" s="151"/>
+      <c r="BF49" s="151"/>
+      <c r="BG49" s="151"/>
+      <c r="BH49" s="151"/>
+      <c r="BI49" s="151"/>
+      <c r="BJ49" s="151"/>
+      <c r="BK49" s="178"/>
+    </row>
+    <row r="50" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
+      <c r="B50" s="138"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
+      <c r="N50" s="164"/>
+      <c r="P50" s="163"/>
+      <c r="Q50" s="170"/>
+      <c r="R50" s="170"/>
+      <c r="S50" s="170"/>
+      <c r="T50" s="170"/>
+      <c r="U50" s="170"/>
+      <c r="V50" s="170"/>
+      <c r="W50" s="170"/>
+      <c r="X50" s="170"/>
+      <c r="Y50" s="170"/>
+      <c r="Z50" s="170"/>
+      <c r="AA50" s="170"/>
+      <c r="AB50" s="170"/>
+      <c r="AC50" s="170"/>
+      <c r="AD50" s="170"/>
+      <c r="AE50" s="170"/>
+      <c r="AF50" s="170"/>
+      <c r="AG50" s="170"/>
+      <c r="AH50" s="170"/>
+      <c r="AI50" s="170"/>
+      <c r="AJ50" s="174"/>
+      <c r="AK50" s="174"/>
+      <c r="AL50" s="174"/>
+      <c r="AM50" s="174"/>
+      <c r="AN50" s="174"/>
+      <c r="AO50" s="174"/>
+      <c r="AP50" s="174"/>
+      <c r="AQ50" s="174"/>
+      <c r="AR50" s="170"/>
+      <c r="AS50" s="170"/>
+      <c r="AT50" s="163"/>
+      <c r="AV50" s="177"/>
+      <c r="AW50" s="153"/>
+      <c r="AX50" s="153"/>
+      <c r="AY50" s="182"/>
+      <c r="AZ50" s="153"/>
+      <c r="BA50" s="184"/>
+      <c r="BB50" s="139"/>
+      <c r="BC50" s="140"/>
+      <c r="BD50" s="140"/>
+      <c r="BE50" s="151"/>
+      <c r="BF50" s="151"/>
+      <c r="BG50" s="151"/>
+      <c r="BH50" s="151"/>
+      <c r="BI50" s="151"/>
+      <c r="BJ50" s="151"/>
+      <c r="BK50" s="178"/>
+    </row>
+    <row r="51" s="133" customFormat="1" ht="13.5" customHeight="1" spans="2:63">
+      <c r="B51" s="138"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="164"/>
+      <c r="P51" s="163"/>
+      <c r="Q51" s="170"/>
+      <c r="R51" s="170"/>
+      <c r="S51" s="170"/>
+      <c r="T51" s="170"/>
+      <c r="U51" s="170"/>
+      <c r="V51" s="170"/>
+      <c r="W51" s="170"/>
+      <c r="X51" s="170"/>
+      <c r="Y51" s="170"/>
+      <c r="Z51" s="170"/>
+      <c r="AA51" s="170"/>
+      <c r="AB51" s="170"/>
+      <c r="AC51" s="170"/>
+      <c r="AD51" s="170"/>
+      <c r="AE51" s="170"/>
+      <c r="AF51" s="170"/>
+      <c r="AG51" s="170"/>
+      <c r="AH51" s="170"/>
+      <c r="AI51" s="170"/>
+      <c r="AJ51" s="174"/>
+      <c r="AK51" s="174"/>
+      <c r="AL51" s="174"/>
+      <c r="AM51" s="174"/>
+      <c r="AN51" s="174"/>
+      <c r="AO51" s="174"/>
+      <c r="AP51" s="174"/>
+      <c r="AQ51" s="174"/>
+      <c r="AR51" s="170"/>
+      <c r="AS51" s="170"/>
+      <c r="AT51" s="163"/>
+      <c r="AV51" s="177"/>
+      <c r="AW51" s="153"/>
+      <c r="AX51" s="153"/>
+      <c r="AY51" s="182"/>
+      <c r="AZ51" s="153"/>
+      <c r="BA51" s="184"/>
+      <c r="BB51" s="139"/>
+      <c r="BC51" s="140"/>
+      <c r="BD51" s="140"/>
+      <c r="BE51" s="151"/>
+      <c r="BF51" s="151"/>
+      <c r="BG51" s="151"/>
+      <c r="BH51" s="151"/>
+      <c r="BI51" s="151"/>
+      <c r="BJ51" s="151"/>
+      <c r="BK51" s="178"/>
     </row>
     <row r="52" spans="2:63">
       <c r="B52" s="145"/>
@@ -8498,124 +11235,122 @@
       <c r="L52" s="146"/>
       <c r="M52" s="165"/>
       <c r="N52" s="146"/>
-      <c r="O52" s="168" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="146"/>
-      <c r="Q52" s="146"/>
-      <c r="R52" s="146"/>
-      <c r="S52" s="146"/>
-      <c r="T52" s="146"/>
-      <c r="U52" s="146"/>
-      <c r="V52" s="146"/>
-      <c r="W52" s="146"/>
-      <c r="X52" s="146"/>
-      <c r="Y52" s="146"/>
-      <c r="Z52" s="146"/>
-      <c r="AA52" s="146"/>
-      <c r="AB52" s="146"/>
-      <c r="AC52" s="146"/>
-      <c r="AD52" s="146"/>
-      <c r="AE52" s="146"/>
-      <c r="AF52" s="146"/>
-      <c r="AG52" s="146"/>
-      <c r="AH52" s="146"/>
-      <c r="AI52" s="146"/>
-      <c r="AJ52" s="146"/>
-      <c r="AK52" s="146"/>
-      <c r="AL52" s="146"/>
-      <c r="AM52" s="146"/>
-      <c r="AN52" s="146"/>
-      <c r="AO52" s="146"/>
-      <c r="AP52" s="146"/>
-      <c r="AQ52" s="146"/>
-      <c r="AR52" s="146"/>
-      <c r="AS52" s="146"/>
-      <c r="AT52" s="146"/>
+      <c r="O52" s="146"/>
+      <c r="P52" s="162"/>
+      <c r="Q52" s="162"/>
+      <c r="R52" s="162"/>
+      <c r="S52" s="162"/>
+      <c r="T52" s="162"/>
+      <c r="U52" s="162"/>
+      <c r="V52" s="162"/>
+      <c r="W52" s="162"/>
+      <c r="X52" s="162"/>
+      <c r="Y52" s="162"/>
+      <c r="Z52" s="162"/>
+      <c r="AA52" s="162"/>
+      <c r="AB52" s="162"/>
+      <c r="AC52" s="162"/>
+      <c r="AD52" s="162"/>
+      <c r="AE52" s="162"/>
+      <c r="AF52" s="162"/>
+      <c r="AG52" s="162"/>
+      <c r="AH52" s="162"/>
+      <c r="AI52" s="162"/>
+      <c r="AJ52" s="162"/>
+      <c r="AK52" s="162"/>
+      <c r="AL52" s="162"/>
+      <c r="AM52" s="162"/>
+      <c r="AN52" s="162"/>
+      <c r="AO52" s="162"/>
+      <c r="AP52" s="162"/>
+      <c r="AQ52" s="162"/>
+      <c r="AR52" s="162"/>
+      <c r="AS52" s="162"/>
+      <c r="AT52" s="162"/>
       <c r="AU52" s="146"/>
       <c r="AV52" s="145"/>
       <c r="AW52" s="146"/>
       <c r="AX52" s="146"/>
       <c r="AY52" s="165"/>
       <c r="AZ52" s="146"/>
-      <c r="BA52" s="186"/>
-      <c r="BB52" s="186"/>
-      <c r="BC52" s="186"/>
-      <c r="BD52" s="186"/>
+      <c r="BA52" s="146"/>
+      <c r="BB52" s="146"/>
+      <c r="BC52" s="146"/>
+      <c r="BD52" s="146"/>
       <c r="BE52" s="146"/>
       <c r="BF52" s="146"/>
       <c r="BG52" s="146"/>
       <c r="BH52" s="146"/>
       <c r="BI52" s="146"/>
       <c r="BJ52" s="146"/>
-      <c r="BK52" s="165"/>
+      <c r="BK52" s="146"/>
     </row>
     <row r="53" spans="2:63">
-      <c r="B53" s="145"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="165"/>
-      <c r="N53" s="146"/>
-      <c r="O53" s="146"/>
-      <c r="P53" s="146"/>
-      <c r="Q53" s="146"/>
-      <c r="R53" s="146"/>
-      <c r="S53" s="146"/>
-      <c r="T53" s="146"/>
-      <c r="U53" s="146"/>
-      <c r="V53" s="146"/>
-      <c r="W53" s="146"/>
-      <c r="X53" s="146"/>
-      <c r="Y53" s="146"/>
-      <c r="Z53" s="146"/>
-      <c r="AA53" s="146"/>
-      <c r="AB53" s="146"/>
-      <c r="AC53" s="146"/>
-      <c r="AD53" s="146"/>
-      <c r="AE53" s="146"/>
-      <c r="AF53" s="146"/>
-      <c r="AG53" s="146"/>
-      <c r="AH53" s="146"/>
-      <c r="AI53" s="146"/>
-      <c r="AJ53" s="146"/>
-      <c r="AK53" s="146"/>
-      <c r="AL53" s="146"/>
-      <c r="AM53" s="146"/>
-      <c r="AN53" s="146"/>
-      <c r="AO53" s="146"/>
-      <c r="AP53" s="146"/>
-      <c r="AQ53" s="146"/>
-      <c r="AR53" s="146"/>
-      <c r="AS53" s="146"/>
-      <c r="AT53" s="146"/>
-      <c r="AU53" s="146"/>
-      <c r="AV53" s="145"/>
-      <c r="AW53" s="146"/>
-      <c r="AX53" s="146"/>
-      <c r="AY53" s="165"/>
-      <c r="AZ53" s="146"/>
-      <c r="BA53" s="186"/>
-      <c r="BB53" s="186"/>
-      <c r="BC53" s="186"/>
-      <c r="BD53" s="186"/>
-      <c r="BE53" s="146"/>
-      <c r="BF53" s="146"/>
-      <c r="BG53" s="146"/>
-      <c r="BH53" s="146"/>
-      <c r="BI53" s="146"/>
-      <c r="BJ53" s="146"/>
-      <c r="BK53" s="165"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="148"/>
+      <c r="L53" s="148"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="148"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="148"/>
+      <c r="R53" s="148"/>
+      <c r="S53" s="148"/>
+      <c r="T53" s="148"/>
+      <c r="U53" s="148"/>
+      <c r="V53" s="148"/>
+      <c r="W53" s="148"/>
+      <c r="X53" s="148"/>
+      <c r="Y53" s="148"/>
+      <c r="Z53" s="148"/>
+      <c r="AA53" s="148"/>
+      <c r="AB53" s="148"/>
+      <c r="AC53" s="148"/>
+      <c r="AD53" s="148"/>
+      <c r="AE53" s="148"/>
+      <c r="AF53" s="148"/>
+      <c r="AG53" s="148"/>
+      <c r="AH53" s="148"/>
+      <c r="AI53" s="148"/>
+      <c r="AJ53" s="148"/>
+      <c r="AK53" s="148"/>
+      <c r="AL53" s="148"/>
+      <c r="AM53" s="148"/>
+      <c r="AN53" s="148"/>
+      <c r="AO53" s="148"/>
+      <c r="AP53" s="148"/>
+      <c r="AQ53" s="148"/>
+      <c r="AR53" s="148"/>
+      <c r="AS53" s="148"/>
+      <c r="AT53" s="148"/>
+      <c r="AU53" s="148"/>
+      <c r="AV53" s="147"/>
+      <c r="AW53" s="148"/>
+      <c r="AX53" s="148"/>
+      <c r="AY53" s="166"/>
+      <c r="AZ53" s="148"/>
+      <c r="BA53" s="185"/>
+      <c r="BB53" s="185"/>
+      <c r="BC53" s="185"/>
+      <c r="BD53" s="185"/>
+      <c r="BE53" s="148"/>
+      <c r="BF53" s="148"/>
+      <c r="BG53" s="148"/>
+      <c r="BH53" s="148"/>
+      <c r="BI53" s="148"/>
+      <c r="BJ53" s="148"/>
+      <c r="BK53" s="148"/>
     </row>
     <row r="54" spans="2:63">
-      <c r="B54" s="145"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="146"/>
       <c r="D54" s="146"/>
       <c r="E54" s="146"/>
@@ -8626,16 +11361,15 @@
       <c r="J54" s="146"/>
       <c r="K54" s="146"/>
       <c r="L54" s="146"/>
-      <c r="M54" s="165"/>
+      <c r="M54" s="146"/>
       <c r="N54" s="146"/>
-      <c r="O54" s="146" t="s">
-        <v>21</v>
-      </c>
+      <c r="O54" s="146"/>
       <c r="P54" s="146"/>
       <c r="Q54" s="146"/>
       <c r="R54" s="146"/>
       <c r="S54" s="146"/>
       <c r="T54" s="146"/>
+      <c r="U54" s="146"/>
       <c r="V54" s="146"/>
       <c r="W54" s="146"/>
       <c r="X54" s="146"/>
@@ -8662,10 +11396,10 @@
       <c r="AS54" s="146"/>
       <c r="AT54" s="146"/>
       <c r="AU54" s="146"/>
-      <c r="AV54" s="145"/>
+      <c r="AV54" s="146"/>
       <c r="AW54" s="146"/>
       <c r="AX54" s="146"/>
-      <c r="AY54" s="165"/>
+      <c r="AY54" s="146"/>
       <c r="AZ54" s="146"/>
       <c r="BA54" s="186"/>
       <c r="BB54" s="186"/>
@@ -8677,137 +11411,143 @@
       <c r="BH54" s="146"/>
       <c r="BI54" s="146"/>
       <c r="BJ54" s="146"/>
-      <c r="BK54" s="165"/>
+      <c r="BK54" s="146"/>
     </row>
     <row r="55" spans="2:63">
-      <c r="B55" s="145"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="165"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="146" t="s">
-        <v>22</v>
-      </c>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="146"/>
-      <c r="R55" s="146"/>
-      <c r="S55" s="146"/>
-      <c r="T55" s="146"/>
-      <c r="V55" s="146"/>
-      <c r="W55" s="146"/>
-      <c r="X55" s="146"/>
-      <c r="Y55" s="146"/>
-      <c r="Z55" s="146"/>
-      <c r="AA55" s="146"/>
-      <c r="AB55" s="146"/>
-      <c r="AC55" s="146"/>
-      <c r="AD55" s="146"/>
-      <c r="AE55" s="146"/>
-      <c r="AF55" s="146"/>
-      <c r="AG55" s="146"/>
-      <c r="AH55" s="146"/>
-      <c r="AI55" s="146"/>
-      <c r="AJ55" s="146"/>
-      <c r="AK55" s="146"/>
-      <c r="AL55" s="146"/>
-      <c r="AM55" s="146"/>
-      <c r="AN55" s="146"/>
-      <c r="AO55" s="146"/>
-      <c r="AP55" s="146"/>
-      <c r="AQ55" s="146"/>
-      <c r="AR55" s="146"/>
-      <c r="AS55" s="146"/>
-      <c r="AT55" s="146"/>
-      <c r="AU55" s="146"/>
-      <c r="AV55" s="145"/>
-      <c r="AW55" s="146"/>
-      <c r="AX55" s="146"/>
-      <c r="AY55" s="165"/>
-      <c r="AZ55" s="146"/>
-      <c r="BA55" s="186"/>
-      <c r="BB55" s="186"/>
-      <c r="BC55" s="186"/>
-      <c r="BD55" s="186"/>
-      <c r="BE55" s="146"/>
-      <c r="BF55" s="146"/>
-      <c r="BG55" s="146"/>
-      <c r="BH55" s="146"/>
-      <c r="BI55" s="146"/>
-      <c r="BJ55" s="146"/>
-      <c r="BK55" s="165"/>
+      <c r="B55" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="136"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="156"/>
+      <c r="P55" s="157"/>
+      <c r="Q55" s="157"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="157"/>
+      <c r="T55" s="157"/>
+      <c r="U55" s="157"/>
+      <c r="V55" s="157"/>
+      <c r="W55" s="157"/>
+      <c r="X55" s="157"/>
+      <c r="Y55" s="157"/>
+      <c r="Z55" s="157"/>
+      <c r="AA55" s="157"/>
+      <c r="AB55" s="157"/>
+      <c r="AC55" s="157"/>
+      <c r="AD55" s="157"/>
+      <c r="AE55" s="157"/>
+      <c r="AF55" s="157"/>
+      <c r="AG55" s="157"/>
+      <c r="AH55" s="157"/>
+      <c r="AI55" s="157"/>
+      <c r="AJ55" s="157"/>
+      <c r="AK55" s="157"/>
+      <c r="AL55" s="157"/>
+      <c r="AM55" s="157"/>
+      <c r="AN55" s="157"/>
+      <c r="AO55" s="157"/>
+      <c r="AP55" s="157"/>
+      <c r="AQ55" s="157"/>
+      <c r="AR55" s="157"/>
+      <c r="AS55" s="157"/>
+      <c r="AT55" s="157"/>
+      <c r="AU55" s="156"/>
+      <c r="AV55" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW55" s="157"/>
+      <c r="AX55" s="157"/>
+      <c r="AY55" s="157"/>
+      <c r="AZ55" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA55" s="157"/>
+      <c r="BB55" s="157"/>
+      <c r="BC55" s="157"/>
+      <c r="BD55" s="157"/>
+      <c r="BE55" s="157"/>
+      <c r="BF55" s="157"/>
+      <c r="BG55" s="157"/>
+      <c r="BH55" s="157"/>
+      <c r="BI55" s="157"/>
+      <c r="BJ55" s="157"/>
+      <c r="BK55" s="188"/>
     </row>
     <row r="56" spans="2:63">
-      <c r="B56" s="145"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="146"/>
-      <c r="M56" s="165"/>
-      <c r="N56" s="146"/>
-      <c r="O56" s="146"/>
-      <c r="P56" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q56" s="146"/>
-      <c r="R56" s="146"/>
-      <c r="S56" s="146"/>
-      <c r="T56" s="146"/>
-      <c r="V56" s="146"/>
-      <c r="W56" s="146"/>
-      <c r="X56" s="146"/>
-      <c r="Y56" s="146"/>
-      <c r="Z56" s="146"/>
-      <c r="AA56" s="146"/>
-      <c r="AB56" s="146"/>
-      <c r="AC56" s="146"/>
-      <c r="AD56" s="146"/>
-      <c r="AE56" s="146"/>
-      <c r="AF56" s="146"/>
-      <c r="AG56" s="146"/>
-      <c r="AH56" s="146"/>
-      <c r="AI56" s="146"/>
-      <c r="AJ56" s="146"/>
-      <c r="AK56" s="146"/>
-      <c r="AL56" s="146"/>
-      <c r="AM56" s="146"/>
-      <c r="AN56" s="146"/>
-      <c r="AO56" s="146"/>
-      <c r="AP56" s="146"/>
-      <c r="AQ56" s="146"/>
-      <c r="AR56" s="146"/>
-      <c r="AS56" s="146"/>
-      <c r="AT56" s="146"/>
-      <c r="AU56" s="146"/>
-      <c r="AV56" s="145"/>
-      <c r="AW56" s="146"/>
-      <c r="AX56" s="146"/>
-      <c r="AY56" s="165"/>
-      <c r="AZ56" s="146"/>
-      <c r="BA56" s="186"/>
-      <c r="BB56" s="186"/>
-      <c r="BC56" s="186"/>
-      <c r="BD56" s="186"/>
-      <c r="BE56" s="146"/>
-      <c r="BF56" s="146"/>
-      <c r="BG56" s="146"/>
-      <c r="BH56" s="146"/>
-      <c r="BI56" s="146"/>
-      <c r="BJ56" s="146"/>
-      <c r="BK56" s="165"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
+      <c r="L56" s="150"/>
+      <c r="M56" s="167"/>
+      <c r="N56" s="150"/>
+      <c r="O56" s="150"/>
+      <c r="P56" s="150"/>
+      <c r="Q56" s="150"/>
+      <c r="R56" s="150"/>
+      <c r="S56" s="150"/>
+      <c r="T56" s="150"/>
+      <c r="U56" s="150"/>
+      <c r="V56" s="150"/>
+      <c r="W56" s="150"/>
+      <c r="X56" s="150"/>
+      <c r="Y56" s="150"/>
+      <c r="Z56" s="150"/>
+      <c r="AA56" s="150"/>
+      <c r="AB56" s="150"/>
+      <c r="AC56" s="150"/>
+      <c r="AD56" s="150"/>
+      <c r="AE56" s="150"/>
+      <c r="AF56" s="150"/>
+      <c r="AG56" s="150"/>
+      <c r="AH56" s="150"/>
+      <c r="AI56" s="150"/>
+      <c r="AJ56" s="150"/>
+      <c r="AK56" s="150"/>
+      <c r="AL56" s="150"/>
+      <c r="AM56" s="150"/>
+      <c r="AN56" s="150"/>
+      <c r="AO56" s="150"/>
+      <c r="AP56" s="150"/>
+      <c r="AQ56" s="150"/>
+      <c r="AR56" s="150"/>
+      <c r="AS56" s="150"/>
+      <c r="AT56" s="150"/>
+      <c r="AU56" s="150"/>
+      <c r="AV56" s="149"/>
+      <c r="AW56" s="150"/>
+      <c r="AX56" s="150"/>
+      <c r="AY56" s="167"/>
+      <c r="AZ56" s="150"/>
+      <c r="BA56" s="187"/>
+      <c r="BB56" s="187"/>
+      <c r="BC56" s="187"/>
+      <c r="BD56" s="187"/>
+      <c r="BE56" s="150"/>
+      <c r="BF56" s="150"/>
+      <c r="BG56" s="150"/>
+      <c r="BH56" s="150"/>
+      <c r="BI56" s="150"/>
+      <c r="BJ56" s="150"/>
+      <c r="BK56" s="167"/>
     </row>
     <row r="57" spans="2:63">
       <c r="B57" s="145"/>
@@ -8823,14 +11563,15 @@
       <c r="L57" s="146"/>
       <c r="M57" s="165"/>
       <c r="N57" s="146"/>
-      <c r="O57" s="146"/>
-      <c r="P57" s="146" t="s">
-        <v>24</v>
-      </c>
+      <c r="O57" s="168" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" s="146"/>
       <c r="Q57" s="146"/>
       <c r="R57" s="146"/>
       <c r="S57" s="146"/>
       <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
       <c r="V57" s="146"/>
       <c r="W57" s="146"/>
       <c r="X57" s="146"/>
@@ -8888,14 +11629,13 @@
       <c r="L58" s="146"/>
       <c r="M58" s="165"/>
       <c r="N58" s="146"/>
-      <c r="O58" s="146" t="s">
-        <v>25</v>
-      </c>
+      <c r="O58" s="146"/>
       <c r="P58" s="146"/>
       <c r="Q58" s="146"/>
       <c r="R58" s="146"/>
       <c r="S58" s="146"/>
       <c r="T58" s="146"/>
+      <c r="U58" s="146"/>
       <c r="V58" s="146"/>
       <c r="W58" s="146"/>
       <c r="X58" s="146"/>
@@ -8953,10 +11693,10 @@
       <c r="L59" s="146"/>
       <c r="M59" s="165"/>
       <c r="N59" s="146"/>
-      <c r="O59" s="146"/>
-      <c r="P59" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="O59" s="146" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" s="146"/>
       <c r="Q59" s="146"/>
       <c r="R59" s="146"/>
       <c r="S59" s="146"/>
@@ -9018,16 +11758,14 @@
       <c r="L60" s="146"/>
       <c r="M60" s="165"/>
       <c r="N60" s="146"/>
-      <c r="O60" s="146"/>
-      <c r="P60" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="O60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" s="146"/>
       <c r="Q60" s="146"/>
       <c r="R60" s="146"/>
       <c r="S60" s="146"/>
       <c r="T60" s="146"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="146"/>
       <c r="W60" s="146"/>
       <c r="X60" s="146"/>
       <c r="Y60" s="146"/>
@@ -9084,10 +11822,17 @@
       <c r="L61" s="146"/>
       <c r="M61" s="165"/>
       <c r="N61" s="146"/>
-      <c r="O61" s="146"/>
-      <c r="Q61" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="O61" s="146" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="146"/>
+      <c r="R61" s="146"/>
+      <c r="S61" s="146"/>
+      <c r="T61" s="146"/>
+      <c r="W61" s="146"/>
+      <c r="X61" s="146"/>
+      <c r="Y61" s="146"/>
+      <c r="Z61" s="146"/>
       <c r="AA61" s="146"/>
       <c r="AB61" s="146"/>
       <c r="AC61" s="146"/>
@@ -9140,16 +11885,13 @@
       <c r="L62" s="146"/>
       <c r="M62" s="165"/>
       <c r="N62" s="146"/>
-      <c r="O62" s="146"/>
-      <c r="P62" s="146"/>
-      <c r="Q62" s="146" t="s">
-        <v>23</v>
-      </c>
+      <c r="P62" s="146" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q62" s="146"/>
       <c r="R62" s="146"/>
       <c r="S62" s="146"/>
       <c r="T62" s="146"/>
-      <c r="U62" s="146"/>
-      <c r="V62" s="146"/>
       <c r="W62" s="146"/>
       <c r="X62" s="146"/>
       <c r="Y62" s="146"/>
@@ -9206,16 +11948,14 @@
       <c r="L63" s="146"/>
       <c r="M63" s="165"/>
       <c r="N63" s="146"/>
-      <c r="O63" s="146"/>
+      <c r="O63" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="P63" s="146"/>
-      <c r="Q63" s="146" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q63" s="146"/>
       <c r="R63" s="146"/>
       <c r="S63" s="146"/>
       <c r="T63" s="146"/>
-      <c r="U63" s="146"/>
-      <c r="V63" s="146"/>
       <c r="W63" s="146"/>
       <c r="X63" s="146"/>
       <c r="Y63" s="146"/>
@@ -9272,16 +12012,14 @@
       <c r="L64" s="146"/>
       <c r="M64" s="165"/>
       <c r="N64" s="146"/>
-      <c r="O64" s="146"/>
       <c r="P64" s="146" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q64" s="146"/>
       <c r="R64" s="146"/>
       <c r="S64" s="146"/>
       <c r="T64" s="146"/>
       <c r="U64" s="146"/>
-      <c r="V64" s="146"/>
       <c r="W64" s="146"/>
       <c r="X64" s="146"/>
       <c r="Y64" s="146"/>
@@ -9338,15 +12076,14 @@
       <c r="L65" s="146"/>
       <c r="M65" s="165"/>
       <c r="N65" s="146"/>
-      <c r="O65" s="146"/>
-      <c r="Q65" s="146" t="s">
-        <v>30</v>
-      </c>
+      <c r="P65" s="146" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q65" s="146"/>
       <c r="R65" s="146"/>
       <c r="S65" s="146"/>
       <c r="T65" s="146"/>
       <c r="U65" s="146"/>
-      <c r="V65" s="146"/>
       <c r="W65" s="146"/>
       <c r="X65" s="146"/>
       <c r="Y65" s="146"/>
@@ -9403,16 +12140,14 @@
       <c r="L66" s="146"/>
       <c r="M66" s="165"/>
       <c r="N66" s="146"/>
-      <c r="O66" s="146"/>
       <c r="P66" s="146"/>
       <c r="Q66" s="146" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="R66" s="146"/>
       <c r="S66" s="146"/>
       <c r="T66" s="146"/>
       <c r="U66" s="146"/>
-      <c r="V66" s="146"/>
       <c r="W66" s="146"/>
       <c r="X66" s="146"/>
       <c r="Y66" s="146"/>
@@ -9456,68 +12191,637 @@
       <c r="BK66" s="165"/>
     </row>
     <row r="67" spans="2:63">
-      <c r="B67" s="147"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="148"/>
-      <c r="K67" s="148"/>
-      <c r="L67" s="148"/>
-      <c r="M67" s="166"/>
-      <c r="N67" s="148"/>
-      <c r="O67" s="148"/>
-      <c r="P67" s="148"/>
-      <c r="Q67" s="148"/>
-      <c r="R67" s="148"/>
-      <c r="S67" s="148"/>
-      <c r="T67" s="148"/>
-      <c r="U67" s="148"/>
-      <c r="V67" s="148"/>
-      <c r="W67" s="148"/>
-      <c r="X67" s="148"/>
-      <c r="Y67" s="148"/>
-      <c r="Z67" s="148"/>
-      <c r="AA67" s="148"/>
-      <c r="AB67" s="148"/>
-      <c r="AC67" s="148"/>
-      <c r="AD67" s="148"/>
-      <c r="AE67" s="148"/>
-      <c r="AF67" s="148"/>
-      <c r="AG67" s="148"/>
-      <c r="AH67" s="148"/>
-      <c r="AI67" s="148"/>
-      <c r="AJ67" s="148"/>
-      <c r="AK67" s="148"/>
-      <c r="AL67" s="148"/>
-      <c r="AM67" s="148"/>
-      <c r="AN67" s="148"/>
-      <c r="AO67" s="148"/>
-      <c r="AP67" s="148"/>
-      <c r="AQ67" s="148"/>
-      <c r="AR67" s="148"/>
-      <c r="AS67" s="148"/>
-      <c r="AT67" s="148"/>
-      <c r="AU67" s="148"/>
-      <c r="AV67" s="147"/>
-      <c r="AW67" s="148"/>
-      <c r="AX67" s="148"/>
-      <c r="AY67" s="166"/>
-      <c r="AZ67" s="148"/>
-      <c r="BA67" s="148"/>
-      <c r="BB67" s="148"/>
-      <c r="BC67" s="148"/>
-      <c r="BD67" s="148"/>
-      <c r="BE67" s="148"/>
-      <c r="BF67" s="148"/>
-      <c r="BG67" s="148"/>
-      <c r="BH67" s="148"/>
-      <c r="BI67" s="148"/>
-      <c r="BJ67" s="148"/>
-      <c r="BK67" s="166"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="146"/>
+      <c r="K67" s="146"/>
+      <c r="L67" s="146"/>
+      <c r="M67" s="165"/>
+      <c r="N67" s="146"/>
+      <c r="P67" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q67" s="146"/>
+      <c r="R67" s="146"/>
+      <c r="S67" s="146"/>
+      <c r="T67" s="146"/>
+      <c r="U67" s="146"/>
+      <c r="W67" s="146"/>
+      <c r="X67" s="146"/>
+      <c r="Y67" s="146"/>
+      <c r="Z67" s="146"/>
+      <c r="AA67" s="146"/>
+      <c r="AB67" s="146"/>
+      <c r="AC67" s="146"/>
+      <c r="AD67" s="146"/>
+      <c r="AE67" s="146"/>
+      <c r="AF67" s="146"/>
+      <c r="AG67" s="146"/>
+      <c r="AH67" s="146"/>
+      <c r="AI67" s="146"/>
+      <c r="AJ67" s="146"/>
+      <c r="AK67" s="146"/>
+      <c r="AL67" s="146"/>
+      <c r="AM67" s="146"/>
+      <c r="AN67" s="146"/>
+      <c r="AO67" s="146"/>
+      <c r="AP67" s="146"/>
+      <c r="AQ67" s="146"/>
+      <c r="AR67" s="146"/>
+      <c r="AS67" s="146"/>
+      <c r="AT67" s="146"/>
+      <c r="AU67" s="146"/>
+      <c r="AV67" s="145"/>
+      <c r="AW67" s="146"/>
+      <c r="AX67" s="146"/>
+      <c r="AY67" s="165"/>
+      <c r="AZ67" s="146"/>
+      <c r="BA67" s="186"/>
+      <c r="BB67" s="186"/>
+      <c r="BC67" s="186"/>
+      <c r="BD67" s="186"/>
+      <c r="BE67" s="146"/>
+      <c r="BF67" s="146"/>
+      <c r="BG67" s="146"/>
+      <c r="BH67" s="146"/>
+      <c r="BI67" s="146"/>
+      <c r="BJ67" s="146"/>
+      <c r="BK67" s="165"/>
+    </row>
+    <row r="68" spans="2:63">
+      <c r="B68" s="145"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="146"/>
+      <c r="K68" s="146"/>
+      <c r="L68" s="146"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="146"/>
+      <c r="P68" s="146"/>
+      <c r="Q68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R68" s="146"/>
+      <c r="S68" s="146"/>
+      <c r="T68" s="146"/>
+      <c r="U68" s="146"/>
+      <c r="W68" s="146"/>
+      <c r="X68" s="146"/>
+      <c r="Y68" s="146"/>
+      <c r="Z68" s="146"/>
+      <c r="AA68" s="146"/>
+      <c r="AB68" s="146"/>
+      <c r="AC68" s="146"/>
+      <c r="AD68" s="146"/>
+      <c r="AE68" s="146"/>
+      <c r="AF68" s="146"/>
+      <c r="AG68" s="146"/>
+      <c r="AH68" s="146"/>
+      <c r="AI68" s="146"/>
+      <c r="AJ68" s="146"/>
+      <c r="AK68" s="146"/>
+      <c r="AL68" s="146"/>
+      <c r="AM68" s="146"/>
+      <c r="AN68" s="146"/>
+      <c r="AO68" s="146"/>
+      <c r="AP68" s="146"/>
+      <c r="AQ68" s="146"/>
+      <c r="AR68" s="146"/>
+      <c r="AS68" s="146"/>
+      <c r="AT68" s="146"/>
+      <c r="AU68" s="146"/>
+      <c r="AV68" s="145"/>
+      <c r="AW68" s="146"/>
+      <c r="AX68" s="146"/>
+      <c r="AY68" s="165"/>
+      <c r="AZ68" s="146"/>
+      <c r="BA68" s="186"/>
+      <c r="BB68" s="186"/>
+      <c r="BC68" s="186"/>
+      <c r="BD68" s="186"/>
+      <c r="BE68" s="146"/>
+      <c r="BF68" s="146"/>
+      <c r="BG68" s="146"/>
+      <c r="BH68" s="146"/>
+      <c r="BI68" s="146"/>
+      <c r="BJ68" s="146"/>
+      <c r="BK68" s="165"/>
+    </row>
+    <row r="69" spans="2:63">
+      <c r="B69" s="145"/>
+      <c r="C69" s="146"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="146"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="146"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="165"/>
+      <c r="N69" s="146"/>
+      <c r="P69" s="146"/>
+      <c r="Q69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R69" s="146"/>
+      <c r="S69" s="146"/>
+      <c r="T69" s="146"/>
+      <c r="U69" s="146"/>
+      <c r="V69" s="146"/>
+      <c r="W69" s="146"/>
+      <c r="X69" s="146"/>
+      <c r="Y69" s="146"/>
+      <c r="Z69" s="146"/>
+      <c r="AA69" s="146"/>
+      <c r="AB69" s="146"/>
+      <c r="AC69" s="146"/>
+      <c r="AD69" s="146"/>
+      <c r="AE69" s="146"/>
+      <c r="AF69" s="146"/>
+      <c r="AG69" s="146"/>
+      <c r="AH69" s="146"/>
+      <c r="AI69" s="146"/>
+      <c r="AJ69" s="146"/>
+      <c r="AK69" s="146"/>
+      <c r="AL69" s="146"/>
+      <c r="AM69" s="146"/>
+      <c r="AN69" s="146"/>
+      <c r="AO69" s="146"/>
+      <c r="AP69" s="146"/>
+      <c r="AQ69" s="146"/>
+      <c r="AR69" s="146"/>
+      <c r="AS69" s="146"/>
+      <c r="AT69" s="146"/>
+      <c r="AU69" s="146"/>
+      <c r="AV69" s="145"/>
+      <c r="AW69" s="146"/>
+      <c r="AX69" s="146"/>
+      <c r="AY69" s="165"/>
+      <c r="AZ69" s="146"/>
+      <c r="BA69" s="186"/>
+      <c r="BB69" s="186"/>
+      <c r="BC69" s="186"/>
+      <c r="BD69" s="186"/>
+      <c r="BE69" s="146"/>
+      <c r="BF69" s="146"/>
+      <c r="BG69" s="146"/>
+      <c r="BH69" s="146"/>
+      <c r="BI69" s="146"/>
+      <c r="BJ69" s="146"/>
+      <c r="BK69" s="165"/>
+    </row>
+    <row r="70" spans="2:63">
+      <c r="B70" s="145"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="146"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
+      <c r="J70" s="146"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="165"/>
+      <c r="N70" s="146"/>
+      <c r="P70" s="146"/>
+      <c r="R70" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB70" s="146"/>
+      <c r="AC70" s="146"/>
+      <c r="AD70" s="146"/>
+      <c r="AE70" s="146"/>
+      <c r="AF70" s="146"/>
+      <c r="AG70" s="146"/>
+      <c r="AH70" s="146"/>
+      <c r="AI70" s="146"/>
+      <c r="AJ70" s="146"/>
+      <c r="AK70" s="146"/>
+      <c r="AL70" s="146"/>
+      <c r="AM70" s="146"/>
+      <c r="AN70" s="146"/>
+      <c r="AO70" s="146"/>
+      <c r="AP70" s="146"/>
+      <c r="AQ70" s="146"/>
+      <c r="AR70" s="146"/>
+      <c r="AS70" s="146"/>
+      <c r="AT70" s="146"/>
+      <c r="AU70" s="146"/>
+      <c r="AV70" s="145"/>
+      <c r="AW70" s="146"/>
+      <c r="AX70" s="146"/>
+      <c r="AY70" s="165"/>
+      <c r="AZ70" s="146"/>
+      <c r="BA70" s="186"/>
+      <c r="BB70" s="186"/>
+      <c r="BC70" s="186"/>
+      <c r="BD70" s="186"/>
+      <c r="BE70" s="146"/>
+      <c r="BF70" s="146"/>
+      <c r="BG70" s="146"/>
+      <c r="BH70" s="146"/>
+      <c r="BI70" s="146"/>
+      <c r="BJ70" s="146"/>
+      <c r="BK70" s="165"/>
+    </row>
+    <row r="71" spans="2:63">
+      <c r="B71" s="145"/>
+      <c r="C71" s="146"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="146"/>
+      <c r="J71" s="146"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="165"/>
+      <c r="N71" s="146"/>
+      <c r="P71" s="146"/>
+      <c r="Q71" s="146" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" s="146"/>
+      <c r="S71" s="146"/>
+      <c r="T71" s="146"/>
+      <c r="U71" s="146"/>
+      <c r="V71" s="146"/>
+      <c r="W71" s="146"/>
+      <c r="X71" s="146"/>
+      <c r="Y71" s="146"/>
+      <c r="Z71" s="146"/>
+      <c r="AA71" s="146"/>
+      <c r="AB71" s="146"/>
+      <c r="AC71" s="146"/>
+      <c r="AD71" s="146"/>
+      <c r="AE71" s="146"/>
+      <c r="AF71" s="146"/>
+      <c r="AG71" s="146"/>
+      <c r="AH71" s="146"/>
+      <c r="AI71" s="146"/>
+      <c r="AJ71" s="146"/>
+      <c r="AK71" s="146"/>
+      <c r="AL71" s="146"/>
+      <c r="AM71" s="146"/>
+      <c r="AN71" s="146"/>
+      <c r="AO71" s="146"/>
+      <c r="AP71" s="146"/>
+      <c r="AQ71" s="146"/>
+      <c r="AR71" s="146"/>
+      <c r="AS71" s="146"/>
+      <c r="AT71" s="146"/>
+      <c r="AU71" s="146"/>
+      <c r="AV71" s="145"/>
+      <c r="AW71" s="146"/>
+      <c r="AX71" s="146"/>
+      <c r="AY71" s="165"/>
+      <c r="AZ71" s="146"/>
+      <c r="BA71" s="186"/>
+      <c r="BB71" s="186"/>
+      <c r="BC71" s="186"/>
+      <c r="BD71" s="186"/>
+      <c r="BE71" s="146"/>
+      <c r="BF71" s="146"/>
+      <c r="BG71" s="146"/>
+      <c r="BH71" s="146"/>
+      <c r="BI71" s="146"/>
+      <c r="BJ71" s="146"/>
+      <c r="BK71" s="165"/>
+    </row>
+    <row r="72" spans="2:63">
+      <c r="B72" s="145"/>
+      <c r="C72" s="146"/>
+      <c r="D72" s="146"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="146"/>
+      <c r="H72" s="146"/>
+      <c r="I72" s="146"/>
+      <c r="J72" s="146"/>
+      <c r="K72" s="146"/>
+      <c r="L72" s="146"/>
+      <c r="M72" s="165"/>
+      <c r="N72" s="146"/>
+      <c r="P72" s="146"/>
+      <c r="Q72" s="146"/>
+      <c r="R72" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="S72" s="146"/>
+      <c r="T72" s="146"/>
+      <c r="U72" s="146"/>
+      <c r="V72" s="146"/>
+      <c r="W72" s="146"/>
+      <c r="X72" s="146"/>
+      <c r="Y72" s="146"/>
+      <c r="Z72" s="146"/>
+      <c r="AA72" s="146"/>
+      <c r="AB72" s="146"/>
+      <c r="AC72" s="146"/>
+      <c r="AD72" s="146"/>
+      <c r="AE72" s="146"/>
+      <c r="AF72" s="146"/>
+      <c r="AG72" s="146"/>
+      <c r="AH72" s="146"/>
+      <c r="AI72" s="146"/>
+      <c r="AJ72" s="146"/>
+      <c r="AK72" s="146"/>
+      <c r="AL72" s="146"/>
+      <c r="AM72" s="146"/>
+      <c r="AN72" s="146"/>
+      <c r="AO72" s="146"/>
+      <c r="AP72" s="146"/>
+      <c r="AQ72" s="146"/>
+      <c r="AR72" s="146"/>
+      <c r="AS72" s="146"/>
+      <c r="AT72" s="146"/>
+      <c r="AU72" s="146"/>
+      <c r="AV72" s="145"/>
+      <c r="AW72" s="146"/>
+      <c r="AX72" s="146"/>
+      <c r="AY72" s="165"/>
+      <c r="AZ72" s="146"/>
+      <c r="BA72" s="186"/>
+      <c r="BB72" s="186"/>
+      <c r="BC72" s="186"/>
+      <c r="BD72" s="186"/>
+      <c r="BE72" s="146"/>
+      <c r="BF72" s="146"/>
+      <c r="BG72" s="146"/>
+      <c r="BH72" s="146"/>
+      <c r="BI72" s="146"/>
+      <c r="BJ72" s="146"/>
+      <c r="BK72" s="165"/>
+    </row>
+    <row r="73" spans="2:63">
+      <c r="B73" s="145"/>
+      <c r="C73" s="146"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="146"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="146"/>
+      <c r="H73" s="146"/>
+      <c r="I73" s="146"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="146"/>
+      <c r="L73" s="146"/>
+      <c r="M73" s="165"/>
+      <c r="N73" s="146"/>
+      <c r="O73" s="146"/>
+      <c r="P73" s="146"/>
+      <c r="Q73" s="146"/>
+      <c r="R73" s="146"/>
+      <c r="S73" s="146"/>
+      <c r="T73" s="146"/>
+      <c r="U73" s="146"/>
+      <c r="V73" s="146"/>
+      <c r="W73" s="146"/>
+      <c r="X73" s="146"/>
+      <c r="Y73" s="146"/>
+      <c r="Z73" s="146"/>
+      <c r="AA73" s="146"/>
+      <c r="AB73" s="146"/>
+      <c r="AC73" s="146"/>
+      <c r="AD73" s="146"/>
+      <c r="AE73" s="146"/>
+      <c r="AF73" s="146"/>
+      <c r="AG73" s="146"/>
+      <c r="AH73" s="146"/>
+      <c r="AI73" s="146"/>
+      <c r="AJ73" s="146"/>
+      <c r="AK73" s="146"/>
+      <c r="AL73" s="146"/>
+      <c r="AM73" s="146"/>
+      <c r="AN73" s="146"/>
+      <c r="AO73" s="146"/>
+      <c r="AP73" s="146"/>
+      <c r="AQ73" s="146"/>
+      <c r="AR73" s="146"/>
+      <c r="AS73" s="146"/>
+      <c r="AT73" s="146"/>
+      <c r="AU73" s="146"/>
+      <c r="AV73" s="145"/>
+      <c r="AW73" s="146"/>
+      <c r="AX73" s="146"/>
+      <c r="AY73" s="165"/>
+      <c r="AZ73" s="146"/>
+      <c r="BA73" s="186"/>
+      <c r="BB73" s="186"/>
+      <c r="BC73" s="186"/>
+      <c r="BD73" s="186"/>
+      <c r="BE73" s="146"/>
+      <c r="BF73" s="146"/>
+      <c r="BG73" s="146"/>
+      <c r="BH73" s="146"/>
+      <c r="BI73" s="146"/>
+      <c r="BJ73" s="146"/>
+      <c r="BK73" s="165"/>
+    </row>
+    <row r="74" spans="2:63">
+      <c r="B74" s="145"/>
+      <c r="C74" s="146"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="146"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="146"/>
+      <c r="H74" s="146"/>
+      <c r="I74" s="146"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="146"/>
+      <c r="L74" s="146"/>
+      <c r="M74" s="165"/>
+      <c r="N74" s="146"/>
+      <c r="O74" s="146"/>
+      <c r="Q74" s="146"/>
+      <c r="R74" s="146"/>
+      <c r="S74" s="146"/>
+      <c r="T74" s="146"/>
+      <c r="U74" s="146"/>
+      <c r="V74" s="146"/>
+      <c r="W74" s="146"/>
+      <c r="X74" s="146"/>
+      <c r="Y74" s="146"/>
+      <c r="Z74" s="146"/>
+      <c r="AA74" s="146"/>
+      <c r="AB74" s="146"/>
+      <c r="AC74" s="146"/>
+      <c r="AD74" s="146"/>
+      <c r="AE74" s="146"/>
+      <c r="AF74" s="146"/>
+      <c r="AG74" s="146"/>
+      <c r="AH74" s="146"/>
+      <c r="AI74" s="146"/>
+      <c r="AJ74" s="146"/>
+      <c r="AK74" s="146"/>
+      <c r="AL74" s="146"/>
+      <c r="AM74" s="146"/>
+      <c r="AN74" s="146"/>
+      <c r="AO74" s="146"/>
+      <c r="AP74" s="146"/>
+      <c r="AQ74" s="146"/>
+      <c r="AR74" s="146"/>
+      <c r="AS74" s="146"/>
+      <c r="AT74" s="146"/>
+      <c r="AU74" s="146"/>
+      <c r="AV74" s="145"/>
+      <c r="AW74" s="146"/>
+      <c r="AX74" s="146"/>
+      <c r="AY74" s="165"/>
+      <c r="AZ74" s="146"/>
+      <c r="BA74" s="186"/>
+      <c r="BB74" s="186"/>
+      <c r="BC74" s="186"/>
+      <c r="BD74" s="186"/>
+      <c r="BE74" s="146"/>
+      <c r="BF74" s="146"/>
+      <c r="BG74" s="146"/>
+      <c r="BH74" s="146"/>
+      <c r="BI74" s="146"/>
+      <c r="BJ74" s="146"/>
+      <c r="BK74" s="165"/>
+    </row>
+    <row r="75" spans="2:63">
+      <c r="B75" s="145"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="146"/>
+      <c r="H75" s="146"/>
+      <c r="I75" s="146"/>
+      <c r="J75" s="146"/>
+      <c r="K75" s="146"/>
+      <c r="L75" s="146"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="146"/>
+      <c r="O75" s="146"/>
+      <c r="P75" s="146"/>
+      <c r="Q75" s="146"/>
+      <c r="R75" s="146"/>
+      <c r="S75" s="146"/>
+      <c r="T75" s="146"/>
+      <c r="U75" s="146"/>
+      <c r="V75" s="146"/>
+      <c r="W75" s="146"/>
+      <c r="X75" s="146"/>
+      <c r="Y75" s="146"/>
+      <c r="Z75" s="146"/>
+      <c r="AA75" s="146"/>
+      <c r="AB75" s="146"/>
+      <c r="AC75" s="146"/>
+      <c r="AD75" s="146"/>
+      <c r="AE75" s="146"/>
+      <c r="AF75" s="146"/>
+      <c r="AG75" s="146"/>
+      <c r="AH75" s="146"/>
+      <c r="AI75" s="146"/>
+      <c r="AJ75" s="146"/>
+      <c r="AK75" s="146"/>
+      <c r="AL75" s="146"/>
+      <c r="AM75" s="146"/>
+      <c r="AN75" s="146"/>
+      <c r="AO75" s="146"/>
+      <c r="AP75" s="146"/>
+      <c r="AQ75" s="146"/>
+      <c r="AR75" s="146"/>
+      <c r="AS75" s="146"/>
+      <c r="AT75" s="146"/>
+      <c r="AU75" s="146"/>
+      <c r="AV75" s="145"/>
+      <c r="AW75" s="146"/>
+      <c r="AX75" s="146"/>
+      <c r="AY75" s="165"/>
+      <c r="AZ75" s="146"/>
+      <c r="BA75" s="186"/>
+      <c r="BB75" s="186"/>
+      <c r="BC75" s="186"/>
+      <c r="BD75" s="186"/>
+      <c r="BE75" s="146"/>
+      <c r="BF75" s="146"/>
+      <c r="BG75" s="146"/>
+      <c r="BH75" s="146"/>
+      <c r="BI75" s="146"/>
+      <c r="BJ75" s="146"/>
+      <c r="BK75" s="165"/>
+    </row>
+    <row r="76" spans="2:63">
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="166"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="148"/>
+      <c r="R76" s="148"/>
+      <c r="S76" s="148"/>
+      <c r="T76" s="148"/>
+      <c r="U76" s="148"/>
+      <c r="V76" s="148"/>
+      <c r="W76" s="148"/>
+      <c r="X76" s="148"/>
+      <c r="Y76" s="148"/>
+      <c r="Z76" s="148"/>
+      <c r="AA76" s="148"/>
+      <c r="AB76" s="148"/>
+      <c r="AC76" s="148"/>
+      <c r="AD76" s="148"/>
+      <c r="AE76" s="148"/>
+      <c r="AF76" s="148"/>
+      <c r="AG76" s="148"/>
+      <c r="AH76" s="148"/>
+      <c r="AI76" s="148"/>
+      <c r="AJ76" s="148"/>
+      <c r="AK76" s="148"/>
+      <c r="AL76" s="148"/>
+      <c r="AM76" s="148"/>
+      <c r="AN76" s="148"/>
+      <c r="AO76" s="148"/>
+      <c r="AP76" s="148"/>
+      <c r="AQ76" s="148"/>
+      <c r="AR76" s="148"/>
+      <c r="AS76" s="148"/>
+      <c r="AT76" s="148"/>
+      <c r="AU76" s="148"/>
+      <c r="AV76" s="147"/>
+      <c r="AW76" s="148"/>
+      <c r="AX76" s="148"/>
+      <c r="AY76" s="166"/>
+      <c r="AZ76" s="148"/>
+      <c r="BA76" s="148"/>
+      <c r="BB76" s="148"/>
+      <c r="BC76" s="148"/>
+      <c r="BD76" s="148"/>
+      <c r="BE76" s="148"/>
+      <c r="BF76" s="148"/>
+      <c r="BG76" s="148"/>
+      <c r="BH76" s="148"/>
+      <c r="BI76" s="148"/>
+      <c r="BJ76" s="148"/>
+      <c r="BK76" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9542,15 +12846,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CR64"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4:BM4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -9580,7 +12884,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
       <c r="M1" s="90" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N1" s="90"/>
       <c r="O1" s="90"/>
@@ -9601,7 +12905,7 @@
       <c r="AD1" s="90"/>
       <c r="AE1" s="90"/>
       <c r="AF1" s="103" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="103"/>
       <c r="AH1" s="103"/>
@@ -9637,7 +12941,7 @@
       <c r="BL1" s="103"/>
       <c r="BM1" s="103"/>
       <c r="BN1" s="122" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="BO1" s="122"/>
       <c r="BP1" s="123" t="e">
@@ -9730,7 +13034,7 @@
       <c r="BL2" s="104"/>
       <c r="BM2" s="104"/>
       <c r="BN2" s="122" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="BO2" s="122"/>
       <c r="BP2" s="123" t="e">
@@ -9833,7 +13137,7 @@
       <c r="C4" s="75"/>
       <c r="D4" s="73"/>
       <c r="E4" s="81" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
@@ -9841,7 +13145,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
       <c r="K4" s="89" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L4" s="89"/>
       <c r="M4" s="89"/>
@@ -9858,7 +13162,7 @@
       <c r="X4" s="99"/>
       <c r="Y4" s="100"/>
       <c r="Z4" s="81" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="81"/>
       <c r="AB4" s="81"/>
@@ -9868,7 +13172,7 @@
       <c r="AF4" s="81"/>
       <c r="AG4" s="81"/>
       <c r="AH4" s="111" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="AI4" s="112"/>
       <c r="AJ4" s="112"/>
@@ -9932,11 +13236,11 @@
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="82" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F6" s="82"/>
       <c r="G6" s="82" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H6" s="82"/>
       <c r="I6" s="82"/>
@@ -9948,7 +13252,7 @@
       <c r="O6" s="82"/>
       <c r="P6" s="82"/>
       <c r="Q6" s="98" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="R6" s="98"/>
       <c r="S6" s="98"/>
@@ -9965,7 +13269,7 @@
       <c r="AD6" s="98"/>
       <c r="AE6" s="105"/>
       <c r="AF6" s="106" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AG6" s="106"/>
       <c r="AH6" s="106"/>
@@ -10022,7 +13326,7 @@
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="84" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -10033,7 +13337,9 @@
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
       <c r="P7" s="94"/>
-      <c r="Q7" s="84"/>
+      <c r="Q7" s="84" t="s">
+        <v>67</v>
+      </c>
       <c r="R7" s="85"/>
       <c r="S7" s="85"/>
       <c r="T7" s="85"/>
@@ -10105,7 +13411,7 @@
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="84" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="85"/>
@@ -10116,7 +13422,9 @@
       <c r="N8" s="85"/>
       <c r="O8" s="85"/>
       <c r="P8" s="94"/>
-      <c r="Q8" s="84"/>
+      <c r="Q8" s="84" t="s">
+        <v>69</v>
+      </c>
       <c r="R8" s="85"/>
       <c r="S8" s="85"/>
       <c r="T8" s="85"/>
@@ -10135,7 +13443,7 @@
       <c r="AG8" s="114"/>
       <c r="AH8" s="114"/>
       <c r="AI8" s="114" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AJ8" s="114"/>
       <c r="AK8" s="114"/>
@@ -10190,7 +13498,7 @@
       </c>
       <c r="F9" s="83"/>
       <c r="G9" s="84" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H9" s="85"/>
       <c r="I9" s="85"/>
@@ -10202,7 +13510,7 @@
       <c r="O9" s="85"/>
       <c r="P9" s="94"/>
       <c r="Q9" s="84" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="R9" s="85"/>
       <c r="S9" s="85"/>
@@ -10275,7 +13583,7 @@
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="84" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85"/>
@@ -10287,7 +13595,7 @@
       <c r="O10" s="85"/>
       <c r="P10" s="94"/>
       <c r="Q10" s="84" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="85"/>
@@ -10309,7 +13617,7 @@
       <c r="AI10" s="114"/>
       <c r="AJ10" s="114"/>
       <c r="AK10" s="114" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AL10" s="114"/>
       <c r="AM10" s="114"/>
@@ -10362,7 +13670,7 @@
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="84" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H11" s="85"/>
       <c r="I11" s="85"/>
@@ -10374,7 +13682,7 @@
       <c r="O11" s="85"/>
       <c r="P11" s="94"/>
       <c r="Q11" s="84" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="R11" s="85"/>
       <c r="S11" s="85"/>
@@ -10447,7 +13755,7 @@
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="84" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
@@ -10459,7 +13767,7 @@
       <c r="O12" s="85"/>
       <c r="P12" s="94"/>
       <c r="Q12" s="84" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="R12" s="85"/>
       <c r="S12" s="85"/>
@@ -10532,7 +13840,7 @@
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="84" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
@@ -10544,7 +13852,7 @@
       <c r="O13" s="85"/>
       <c r="P13" s="94"/>
       <c r="Q13" s="85" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="R13" s="85"/>
       <c r="S13" s="85"/>
@@ -10617,7 +13925,7 @@
       </c>
       <c r="F14" s="83"/>
       <c r="G14" s="84" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -10629,7 +13937,7 @@
       <c r="O14" s="85"/>
       <c r="P14" s="94"/>
       <c r="Q14" s="85" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="R14" s="85"/>
       <c r="S14" s="85"/>
@@ -10702,7 +14010,7 @@
       </c>
       <c r="F15" s="83"/>
       <c r="G15" s="84" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H15" s="85"/>
       <c r="I15" s="85"/>
@@ -10714,7 +14022,7 @@
       <c r="O15" s="85"/>
       <c r="P15" s="94"/>
       <c r="Q15" s="85" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="R15" s="85"/>
       <c r="S15" s="85"/>
@@ -13889,7 +17197,7 @@
       <c r="AD54" s="94"/>
       <c r="AE54" s="102"/>
       <c r="AF54" s="98" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="AG54" s="98"/>
       <c r="AH54" s="98"/>
@@ -13972,7 +17280,7 @@
       <c r="AD55" s="94"/>
       <c r="AE55" s="102"/>
       <c r="AF55" s="110" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG55" s="110"/>
       <c r="AH55" s="110"/>
@@ -14980,15 +18288,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BI65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13:AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -15015,7 +18323,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="31" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
@@ -15035,7 +18343,7 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="51" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -15056,7 +18364,7 @@
       <c r="AV1" s="51"/>
       <c r="AW1" s="51"/>
       <c r="AX1" s="57" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AY1" s="57"/>
       <c r="AZ1" s="58" t="e">
@@ -15126,7 +18434,7 @@
       <c r="AV2" s="52"/>
       <c r="AW2" s="52"/>
       <c r="AX2" s="57" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AY2" s="57"/>
       <c r="AZ2" s="58" t="e">
@@ -15273,7 +18581,7 @@
     <row r="5" s="2" customFormat="1" ht="13.5" customHeight="1" spans="2:61">
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -15284,7 +18592,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="29" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -15339,10 +18647,10 @@
     <row r="6" s="2" customFormat="1" ht="13.5" customHeight="1" spans="2:61">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -15364,7 +18672,7 @@
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
       <c r="X6" s="14" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
@@ -15388,7 +18696,7 @@
       <c r="AR6" s="14"/>
       <c r="AS6" s="14"/>
       <c r="AT6" s="14" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="14"/>
@@ -15410,7 +18718,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -15427,12 +18735,12 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="43" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="W7" s="43"/>
       <c r="X7" s="14"/>
@@ -15481,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -15498,12 +18806,12 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="37"/>
       <c r="S8" s="38" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="T8" s="39"/>
       <c r="U8" s="44"/>
       <c r="V8" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W8" s="46"/>
       <c r="X8" s="47"/>
@@ -15552,7 +18860,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -15569,12 +18877,12 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="40"/>
       <c r="S9" s="38" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="T9" s="39"/>
       <c r="U9" s="44"/>
       <c r="V9" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W9" s="46"/>
       <c r="X9" s="47"/>
@@ -15623,7 +18931,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -15640,12 +18948,12 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="40"/>
       <c r="S10" s="38" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="T10" s="39"/>
       <c r="U10" s="44"/>
       <c r="V10" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W10" s="46"/>
       <c r="X10" s="47"/>
@@ -15671,7 +18979,7 @@
       <c r="AR10" s="47"/>
       <c r="AS10" s="47"/>
       <c r="AT10" s="53" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AU10" s="53"/>
       <c r="AV10" s="53"/>
@@ -15696,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -15713,12 +19021,12 @@
       <c r="Q11" s="35"/>
       <c r="R11" s="41"/>
       <c r="S11" s="38" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="T11" s="39"/>
       <c r="U11" s="44"/>
       <c r="V11" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W11" s="46"/>
       <c r="X11" s="48"/>
@@ -15744,7 +19052,7 @@
       <c r="AR11" s="48"/>
       <c r="AS11" s="48"/>
       <c r="AT11" s="53" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AU11" s="53"/>
       <c r="AV11" s="53"/>
@@ -15769,7 +19077,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -15786,12 +19094,12 @@
       <c r="Q12" s="35"/>
       <c r="R12" s="41"/>
       <c r="S12" s="38" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="44"/>
       <c r="V12" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W12" s="46"/>
       <c r="X12" s="48"/>
@@ -15840,7 +19148,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -15857,12 +19165,12 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="41"/>
       <c r="S13" s="38" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="T13" s="39"/>
       <c r="U13" s="44"/>
       <c r="V13" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W13" s="46"/>
       <c r="X13" s="48"/>
@@ -15911,7 +19219,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -15928,12 +19236,12 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="41"/>
       <c r="S14" s="38" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="T14" s="39"/>
       <c r="U14" s="44"/>
       <c r="V14" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W14" s="46"/>
       <c r="X14" s="48"/>
@@ -15982,7 +19290,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -15999,12 +19307,12 @@
       <c r="Q15" s="35"/>
       <c r="R15" s="41"/>
       <c r="S15" s="38" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="T15" s="39"/>
       <c r="U15" s="44"/>
       <c r="V15" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W15" s="46"/>
       <c r="X15" s="48"/>
@@ -16053,7 +19361,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -16070,12 +19378,12 @@
       <c r="Q16" s="35"/>
       <c r="R16" s="41"/>
       <c r="S16" s="38" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="T16" s="39"/>
       <c r="U16" s="44"/>
       <c r="V16" s="45" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="W16" s="46"/>
       <c r="X16" s="48"/>
@@ -16246,9 +19554,7 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="13.5" customHeight="1" spans="2:61">
       <c r="B19" s="9"/>
-      <c r="C19" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -16256,9 +19562,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
@@ -16375,9 +19679,7 @@
     <row r="21" s="2" customFormat="1" ht="13.5" customHeight="1" spans="2:61">
       <c r="B21" s="9"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -16398,9 +19700,7 @@
       <c r="V21" s="49"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
-      <c r="Y21" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="Y21" s="22"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
@@ -16504,9 +19804,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="20"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -16526,9 +19824,7 @@
       <c r="V23" s="49"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
-      <c r="Y23" s="50" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y23" s="50"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
@@ -16633,9 +19929,7 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
-        <v>81</v>
-      </c>
+      <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -16658,9 +19952,7 @@
       <c r="Z25" s="24"/>
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
-      <c r="AC25" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="AC25" s="28"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="24"/>
       <c r="AF25" s="24"/>
@@ -16762,9 +20054,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
-        <v>83</v>
-      </c>
+      <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -16887,9 +20177,7 @@
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -16912,9 +20200,7 @@
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
-      <c r="AC29" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="AC29" s="28"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
@@ -17016,9 +20302,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -17141,9 +20425,7 @@
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="24" t="s">
-        <v>87</v>
-      </c>
+      <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -17166,9 +20448,7 @@
       <c r="Z33" s="24"/>
       <c r="AA33" s="24"/>
       <c r="AB33" s="24"/>
-      <c r="AC33" s="28" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC33" s="28"/>
       <c r="AD33" s="24"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
@@ -17270,9 +20550,7 @@
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>89</v>
-      </c>
+      <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -17393,9 +20671,7 @@
     <row r="37" s="2" customFormat="1" ht="13.5" customHeight="1" spans="2:61">
       <c r="B37" s="9"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -17404,9 +20680,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
-      <c r="M37" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="M37" s="24"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -17522,9 +20796,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="24" t="s">
-        <v>92</v>
-      </c>
+      <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -17586,9 +20858,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="24" t="s">
-        <v>93</v>
-      </c>
+      <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -17651,9 +20921,7 @@
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
@@ -17778,9 +21046,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
-        <v>95</v>
-      </c>
+      <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -17841,9 +21107,7 @@
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="28" t="s">
-        <v>96</v>
-      </c>
+      <c r="F44" s="28"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -17905,9 +21169,7 @@
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
-        <v>97</v>
-      </c>
+      <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -18032,9 +21294,7 @@
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
-        <v>98</v>
-      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -18101,9 +21361,7 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
-      <c r="L48" s="24" t="s">
-        <v>99</v>
-      </c>
+      <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
       <c r="O48" s="24"/>
@@ -18159,9 +21417,7 @@
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="F49" s="28"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -18224,12 +21480,8 @@
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
@@ -18291,9 +21543,7 @@
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
@@ -18354,9 +21604,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
-      <c r="G52" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="G52" s="28"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -18415,9 +21663,7 @@
     <row r="53" s="2" customFormat="1" ht="13.5" customHeight="1" spans="2:61">
       <c r="B53" s="9"/>
       <c r="C53" s="24"/>
-      <c r="D53" s="24" t="s">
-        <v>105</v>
-      </c>
+      <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -18431,9 +21677,7 @@
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-      <c r="R53" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="R53" s="24"/>
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
@@ -18544,9 +21788,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
-      <c r="E55" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
@@ -18555,9 +21797,7 @@
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
-      <c r="N55" s="24" t="s">
-        <v>108</v>
-      </c>
+      <c r="N55" s="24"/>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
@@ -18611,9 +21851,7 @@
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
@@ -18621,9 +21859,7 @@
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
-      <c r="N56" s="24" t="s">
-        <v>110</v>
-      </c>
+      <c r="N56" s="24"/>
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
@@ -18677,9 +21913,7 @@
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="24" t="s">
-        <v>111</v>
-      </c>
+      <c r="F57" s="24"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -18687,9 +21921,7 @@
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
-      <c r="N57" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="N57" s="24"/>
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
@@ -18743,9 +21975,7 @@
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="24" t="s">
-        <v>113</v>
-      </c>
+      <c r="F58" s="24"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
@@ -18753,9 +21983,7 @@
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
-      <c r="N58" s="24" t="s">
-        <v>114</v>
-      </c>
+      <c r="N58" s="24"/>
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
@@ -18809,9 +22037,7 @@
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="24" t="s">
-        <v>115</v>
-      </c>
+      <c r="F59" s="24"/>
       <c r="G59" s="24"/>
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
@@ -18819,9 +22045,7 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="24" t="s">
-        <v>116</v>
-      </c>
+      <c r="N59" s="24"/>
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
       <c r="Q59" s="24"/>
@@ -18875,9 +22099,7 @@
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="F60" s="24"/>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -18885,9 +22107,7 @@
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
-      <c r="N60" s="24" t="s">
-        <v>118</v>
-      </c>
+      <c r="N60" s="24"/>
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
@@ -18941,9 +22161,7 @@
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="24" t="s">
-        <v>119</v>
-      </c>
+      <c r="F61" s="24"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
@@ -18951,9 +22169,7 @@
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
-      <c r="N61" s="24" t="s">
-        <v>120</v>
-      </c>
+      <c r="N61" s="24"/>
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
       <c r="Q61" s="24"/>
@@ -19007,9 +22223,7 @@
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="24" t="s">
-        <v>121</v>
-      </c>
+      <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
@@ -19017,9 +22231,7 @@
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
-      <c r="N62" s="24" t="s">
-        <v>122</v>
-      </c>
+      <c r="N62" s="24"/>
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
       <c r="Q62" s="24"/>
@@ -19073,9 +22285,7 @@
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="24" t="s">
-        <v>123</v>
-      </c>
+      <c r="F63" s="24"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
@@ -19083,9 +22293,7 @@
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
-      <c r="N63" s="24" t="s">
-        <v>124</v>
-      </c>
+      <c r="N63" s="24"/>
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
       <c r="Q63" s="24"/>
@@ -19296,7 +22504,7 @@
     <mergeCell ref="AT6:BF7"/>
   </mergeCells>
   <pageMargins left="0.39375" right="0.39375" top="0.590277777777778" bottom="0.590972222222222" header="0.511805555555555" footer="0.315277777777778"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Arial,Regular"&amp;P</oddFooter>
   </headerFooter>
